--- a/src/Components/Price/ПРАЙС-ЛИСТ от 01.02.2025.xlsx
+++ b/src/Components/Price/ПРАЙС-ЛИСТ от 01.02.2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.1\Files\МДГТ - (Прайс-лист)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\website\src\Components\Price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1392E7B-6453-43C6-84C4-BBDC30392A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619DD777-D73F-4FDC-A764-44D7717562C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="470">
   <si>
     <t>ПРАЙС-ЛИСТ</t>
   </si>
@@ -2545,6 +2545,9 @@
   </si>
   <si>
     <t>1.6 Физико-механические свойства скальных грунтов в приборе трехосного сжатия и срезовом приборе</t>
+  </si>
+  <si>
+    <t>Цена испытания в приборе трехосного сжатия и срезовом приборе, руб</t>
   </si>
 </sst>
 </file>
@@ -4487,12 +4490,168 @@
     <xf numFmtId="4" fontId="47" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="25" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="46" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4513,162 +4672,6 @@
     </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5061,8 +5064,8 @@
   </sheetPr>
   <dimension ref="A1:I422"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A382" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B396" sqref="B396:H397"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A124" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5077,40 +5080,40 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="113"/>
       <c r="F1" s="113"/>
-      <c r="G1" s="255" t="s">
+      <c r="G1" s="202" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="255"/>
+      <c r="H1" s="202"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="113"/>
       <c r="F2" s="113"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3" s="113"/>
       <c r="F3" s="113"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
     </row>
     <row r="4" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="113"/>
       <c r="F4" s="113"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
+      <c r="G4" s="202"/>
+      <c r="H4" s="202"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="113"/>
       <c r="F5" s="113"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
     </row>
     <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.45">
       <c r="A7" s="114"/>
@@ -5212,10 +5215,10 @@
       <c r="F14" s="187" t="s">
         <v>387</v>
       </c>
-      <c r="G14" s="198" t="s">
+      <c r="G14" s="226" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="198"/>
+      <c r="H14" s="226"/>
     </row>
     <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
@@ -5234,10 +5237,10 @@
       <c r="F15" s="188">
         <v>5</v>
       </c>
-      <c r="G15" s="211">
+      <c r="G15" s="250">
         <v>6</v>
       </c>
-      <c r="H15" s="211"/>
+      <c r="H15" s="250"/>
     </row>
     <row r="16" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
@@ -5257,11 +5260,11 @@
       <c r="F16" s="49">
         <v>0.45</v>
       </c>
-      <c r="G16" s="197">
+      <c r="G16" s="205">
         <f>E16*F16</f>
         <v>186.6807</v>
       </c>
-      <c r="H16" s="197"/>
+      <c r="H16" s="205"/>
     </row>
     <row r="17" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
@@ -5281,11 +5284,11 @@
       <c r="F17" s="49">
         <v>0.45</v>
       </c>
-      <c r="G17" s="197">
+      <c r="G17" s="205">
         <f t="shared" ref="G17:G64" si="0">E17*F17</f>
         <v>131.00400000000002</v>
       </c>
-      <c r="H17" s="197"/>
+      <c r="H17" s="205"/>
     </row>
     <row r="18" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
@@ -5305,11 +5308,11 @@
       <c r="F18" s="49">
         <v>0.45</v>
       </c>
-      <c r="G18" s="197">
+      <c r="G18" s="205">
         <f t="shared" si="0"/>
         <v>317.68470000000002</v>
       </c>
-      <c r="H18" s="197"/>
+      <c r="H18" s="205"/>
     </row>
     <row r="19" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
@@ -5329,11 +5332,11 @@
       <c r="F19" s="49">
         <v>0.45</v>
       </c>
-      <c r="G19" s="197">
+      <c r="G19" s="205">
         <f t="shared" si="0"/>
         <v>235.80720000000005</v>
       </c>
-      <c r="H19" s="197"/>
+      <c r="H19" s="205"/>
     </row>
     <row r="20" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
@@ -5353,11 +5356,11 @@
       <c r="F20" s="49">
         <v>0.45</v>
       </c>
-      <c r="G20" s="197">
+      <c r="G20" s="205">
         <f t="shared" si="0"/>
         <v>596.06820000000005</v>
       </c>
-      <c r="H20" s="197"/>
+      <c r="H20" s="205"/>
     </row>
     <row r="21" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
@@ -5377,11 +5380,11 @@
       <c r="F21" s="49">
         <v>0.45</v>
       </c>
-      <c r="G21" s="197">
+      <c r="G21" s="205">
         <f t="shared" si="0"/>
         <v>661.5702</v>
       </c>
-      <c r="H21" s="197"/>
+      <c r="H21" s="205"/>
     </row>
     <row r="22" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
@@ -5401,11 +5404,11 @@
       <c r="F22" s="49">
         <v>0.45</v>
       </c>
-      <c r="G22" s="197">
+      <c r="G22" s="205">
         <f t="shared" si="0"/>
         <v>641.91960000000006</v>
       </c>
-      <c r="H22" s="197"/>
+      <c r="H22" s="205"/>
     </row>
     <row r="23" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
@@ -5425,11 +5428,11 @@
       <c r="F23" s="49">
         <v>0.45</v>
       </c>
-      <c r="G23" s="197">
+      <c r="G23" s="205">
         <f t="shared" si="0"/>
         <v>448.68870000000004</v>
       </c>
-      <c r="H23" s="197"/>
+      <c r="H23" s="205"/>
     </row>
     <row r="24" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
@@ -5449,11 +5452,11 @@
       <c r="F24" s="49">
         <v>0.45</v>
       </c>
-      <c r="G24" s="197">
+      <c r="G24" s="205">
         <f t="shared" si="0"/>
         <v>232.53209999999999</v>
       </c>
-      <c r="H24" s="197"/>
+      <c r="H24" s="205"/>
     </row>
     <row r="25" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
@@ -5473,11 +5476,11 @@
       <c r="F25" s="49">
         <v>0.45</v>
       </c>
-      <c r="G25" s="197">
+      <c r="G25" s="205">
         <f t="shared" si="0"/>
         <v>163.755</v>
       </c>
-      <c r="H25" s="197"/>
+      <c r="H25" s="205"/>
     </row>
     <row r="26" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
@@ -5497,11 +5500,11 @@
       <c r="F26" s="49">
         <v>0.45</v>
       </c>
-      <c r="G26" s="197">
+      <c r="G26" s="205">
         <f t="shared" si="0"/>
         <v>1542.5721000000001</v>
       </c>
-      <c r="H26" s="197"/>
+      <c r="H26" s="205"/>
     </row>
     <row r="27" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
@@ -5521,11 +5524,11 @@
       <c r="F27" s="49">
         <v>0.45</v>
       </c>
-      <c r="G27" s="197">
+      <c r="G27" s="205">
         <f t="shared" si="0"/>
         <v>2230.3430999999996</v>
       </c>
-      <c r="H27" s="197"/>
+      <c r="H27" s="205"/>
     </row>
     <row r="28" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
@@ -5545,11 +5548,11 @@
       <c r="F28" s="49">
         <v>0.45</v>
       </c>
-      <c r="G28" s="197">
+      <c r="G28" s="205">
         <f t="shared" si="0"/>
         <v>533.84130000000005</v>
       </c>
-      <c r="H28" s="197"/>
+      <c r="H28" s="205"/>
     </row>
     <row r="29" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -5569,11 +5572,11 @@
       <c r="F29" s="49">
         <v>0.45</v>
       </c>
-      <c r="G29" s="197">
+      <c r="G29" s="205">
         <f>E29*F29</f>
         <v>596.06820000000005</v>
       </c>
-      <c r="H29" s="197"/>
+      <c r="H29" s="205"/>
     </row>
     <row r="30" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
@@ -5593,11 +5596,11 @@
       <c r="F30" s="49">
         <v>0.45</v>
       </c>
-      <c r="G30" s="197">
+      <c r="G30" s="205">
         <f t="shared" si="0"/>
         <v>442.13850000000002</v>
       </c>
-      <c r="H30" s="197"/>
+      <c r="H30" s="205"/>
     </row>
     <row r="31" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
@@ -5617,11 +5620,11 @@
       <c r="F31" s="49">
         <v>0.45</v>
       </c>
-      <c r="G31" s="197">
+      <c r="G31" s="205">
         <f>E31*F31</f>
         <v>281.65860000000004</v>
       </c>
-      <c r="H31" s="197"/>
+      <c r="H31" s="205"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
@@ -5641,11 +5644,11 @@
       <c r="F32" s="49">
         <v>0.45</v>
       </c>
-      <c r="G32" s="197">
+      <c r="G32" s="205">
         <f>E32*F32</f>
         <v>160.47990000000001</v>
       </c>
-      <c r="H32" s="197"/>
+      <c r="H32" s="205"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
@@ -5665,11 +5668,11 @@
       <c r="F33" s="49">
         <v>0.45</v>
       </c>
-      <c r="G33" s="197">
+      <c r="G33" s="205">
         <f>E33*F33</f>
         <v>252.18270000000004</v>
       </c>
-      <c r="H33" s="197"/>
+      <c r="H33" s="205"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
@@ -5689,11 +5692,11 @@
       <c r="F34" s="49">
         <v>0.45</v>
       </c>
-      <c r="G34" s="197">
+      <c r="G34" s="205">
         <f>E34*F34</f>
         <v>2286.0198</v>
       </c>
-      <c r="H34" s="197"/>
+      <c r="H34" s="205"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
@@ -6752,25 +6755,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
-      <c r="B77" s="200" t="s">
+      <c r="B77" s="252" t="s">
         <v>463</v>
       </c>
-      <c r="C77" s="201"/>
-      <c r="D77" s="201"/>
-      <c r="E77" s="201"/>
-      <c r="F77" s="201"/>
-      <c r="G77" s="201"/>
-      <c r="H77" s="202"/>
+      <c r="C77" s="253"/>
+      <c r="D77" s="253"/>
+      <c r="E77" s="253"/>
+      <c r="F77" s="253"/>
+      <c r="G77" s="253"/>
+      <c r="H77" s="254"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
-      <c r="B78" s="203"/>
-      <c r="C78" s="204"/>
-      <c r="D78" s="204"/>
-      <c r="E78" s="204"/>
-      <c r="F78" s="204"/>
-      <c r="G78" s="204"/>
-      <c r="H78" s="205"/>
+      <c r="B78" s="255"/>
+      <c r="C78" s="256"/>
+      <c r="D78" s="256"/>
+      <c r="E78" s="256"/>
+      <c r="F78" s="256"/>
+      <c r="G78" s="256"/>
+      <c r="H78" s="257"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
@@ -6822,10 +6825,10 @@
       <c r="F82" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G82" s="198" t="s">
+      <c r="G82" s="226" t="s">
         <v>388</v>
       </c>
-      <c r="H82" s="198"/>
+      <c r="H82" s="226"/>
     </row>
     <row r="83" spans="1:8" ht="14" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
@@ -6844,10 +6847,10 @@
       <c r="F83" s="189">
         <v>5</v>
       </c>
-      <c r="G83" s="199">
+      <c r="G83" s="251">
         <v>6</v>
       </c>
-      <c r="H83" s="199"/>
+      <c r="H83" s="251"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
@@ -6867,11 +6870,11 @@
       <c r="F84" s="49">
         <v>0.45</v>
       </c>
-      <c r="G84" s="197">
+      <c r="G84" s="205">
         <f t="shared" ref="G84:G106" si="3">E84*F84</f>
         <v>1490.1705000000002</v>
       </c>
-      <c r="H84" s="197"/>
+      <c r="H84" s="205"/>
     </row>
     <row r="85" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
@@ -6891,11 +6894,11 @@
       <c r="F85" s="49">
         <v>0.45</v>
       </c>
-      <c r="G85" s="197">
+      <c r="G85" s="205">
         <f t="shared" si="3"/>
         <v>1310.04</v>
       </c>
-      <c r="H85" s="197"/>
+      <c r="H85" s="205"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
@@ -6915,11 +6918,11 @@
       <c r="F86" s="49">
         <v>0.45</v>
       </c>
-      <c r="G86" s="197">
+      <c r="G86" s="205">
         <f t="shared" si="3"/>
         <v>62.226899999999993</v>
       </c>
-      <c r="H86" s="197"/>
+      <c r="H86" s="205"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
@@ -6939,11 +6942,11 @@
       <c r="F87" s="49">
         <v>0.45</v>
       </c>
-      <c r="G87" s="197">
+      <c r="G87" s="205">
         <f t="shared" si="3"/>
         <v>94.977899999999991</v>
       </c>
-      <c r="H87" s="197"/>
+      <c r="H87" s="205"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
@@ -6963,11 +6966,11 @@
       <c r="F88" s="49">
         <v>0.45</v>
       </c>
-      <c r="G88" s="197">
+      <c r="G88" s="205">
         <f t="shared" si="3"/>
         <v>111.35340000000001</v>
       </c>
-      <c r="H88" s="197"/>
+      <c r="H88" s="205"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
@@ -6987,11 +6990,11 @@
       <c r="F89" s="49">
         <v>0.45</v>
       </c>
-      <c r="G89" s="197">
+      <c r="G89" s="205">
         <f t="shared" si="3"/>
         <v>530.56620000000009</v>
       </c>
-      <c r="H89" s="197"/>
+      <c r="H89" s="205"/>
     </row>
     <row r="90" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
@@ -7011,11 +7014,11 @@
       <c r="F90" s="49">
         <v>0.45</v>
       </c>
-      <c r="G90" s="197">
+      <c r="G90" s="205">
         <f t="shared" si="3"/>
         <v>232.53209999999999</v>
       </c>
-      <c r="H90" s="197"/>
+      <c r="H90" s="205"/>
     </row>
     <row r="91" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
@@ -7035,11 +7038,11 @@
       <c r="F91" s="49">
         <v>0.45</v>
       </c>
-      <c r="G91" s="197">
+      <c r="G91" s="205">
         <f t="shared" si="3"/>
         <v>448.68870000000004</v>
       </c>
-      <c r="H91" s="197"/>
+      <c r="H91" s="205"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
@@ -7442,10 +7445,10 @@
       <c r="F110" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G110" s="218" t="s">
+      <c r="G110" s="221" t="s">
         <v>388</v>
       </c>
-      <c r="H110" s="218"/>
+      <c r="H110" s="221"/>
     </row>
     <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A111" s="47"/>
@@ -7464,10 +7467,10 @@
       <c r="F111" s="48">
         <v>5</v>
       </c>
-      <c r="G111" s="219">
+      <c r="G111" s="222">
         <v>6</v>
       </c>
-      <c r="H111" s="219"/>
+      <c r="H111" s="222"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="30"/>
@@ -7487,11 +7490,11 @@
       <c r="F112" s="49">
         <v>0.45</v>
       </c>
-      <c r="G112" s="223">
+      <c r="G112" s="216">
         <f t="shared" ref="G112:G123" si="6">E112*F112</f>
         <v>196.506</v>
       </c>
-      <c r="H112" s="223"/>
+      <c r="H112" s="216"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
@@ -7511,11 +7514,11 @@
       <c r="F113" s="49">
         <v>0.45</v>
       </c>
-      <c r="G113" s="223">
+      <c r="G113" s="216">
         <f t="shared" si="6"/>
         <v>62.226899999999993</v>
       </c>
-      <c r="H113" s="223"/>
+      <c r="H113" s="216"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
@@ -7535,11 +7538,11 @@
       <c r="F114" s="49">
         <v>0.45</v>
       </c>
-      <c r="G114" s="223">
+      <c r="G114" s="216">
         <f t="shared" si="6"/>
         <v>262.00800000000004</v>
       </c>
-      <c r="H114" s="223"/>
+      <c r="H114" s="216"/>
     </row>
     <row r="115" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
@@ -7559,11 +7562,11 @@
       <c r="F115" s="49">
         <v>0.45</v>
       </c>
-      <c r="G115" s="223">
+      <c r="G115" s="216">
         <f t="shared" si="6"/>
         <v>4002.1722000000004</v>
       </c>
-      <c r="H115" s="223"/>
+      <c r="H115" s="216"/>
     </row>
     <row r="116" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
@@ -7583,11 +7586,11 @@
       <c r="F116" s="49">
         <v>0.45</v>
       </c>
-      <c r="G116" s="223">
+      <c r="G116" s="216">
         <f t="shared" si="6"/>
         <v>4814.3969999999999</v>
       </c>
-      <c r="H116" s="223"/>
+      <c r="H116" s="216"/>
     </row>
     <row r="117" spans="1:8" ht="53.5" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
@@ -7607,11 +7610,11 @@
       <c r="F117" s="49">
         <v>0.85</v>
       </c>
-      <c r="G117" s="223">
+      <c r="G117" s="216">
         <f t="shared" si="6"/>
         <v>7559.6585999999998</v>
       </c>
-      <c r="H117" s="223"/>
+      <c r="H117" s="216"/>
     </row>
     <row r="118" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="30"/>
@@ -7631,11 +7634,11 @@
       <c r="F118" s="49">
         <v>0.85</v>
       </c>
-      <c r="G118" s="223">
+      <c r="G118" s="216">
         <f t="shared" si="6"/>
         <v>9093.860999999999</v>
       </c>
-      <c r="H118" s="223"/>
+      <c r="H118" s="216"/>
     </row>
     <row r="119" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A119" s="30"/>
@@ -7655,11 +7658,11 @@
       <c r="F119" s="49">
         <v>0.45</v>
       </c>
-      <c r="G119" s="223">
+      <c r="G119" s="216">
         <f t="shared" si="6"/>
         <v>5479.2423000000008</v>
       </c>
-      <c r="H119" s="223"/>
+      <c r="H119" s="216"/>
     </row>
     <row r="120" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
@@ -7679,11 +7682,11 @@
       <c r="F120" s="49">
         <v>0.45</v>
       </c>
-      <c r="G120" s="223">
+      <c r="G120" s="216">
         <f t="shared" si="6"/>
         <v>6828.5835000000006</v>
       </c>
-      <c r="H120" s="223"/>
+      <c r="H120" s="216"/>
     </row>
     <row r="121" spans="1:8" ht="50.5" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
@@ -7703,11 +7706,11 @@
       <c r="F121" s="49">
         <v>0.85</v>
       </c>
-      <c r="G121" s="223">
+      <c r="G121" s="216">
         <f t="shared" si="6"/>
         <v>10349.679900000001</v>
       </c>
-      <c r="H121" s="223"/>
+      <c r="H121" s="216"/>
     </row>
     <row r="122" spans="1:8" ht="50.5" x14ac:dyDescent="0.25">
       <c r="A122" s="30"/>
@@ -7727,11 +7730,11 @@
       <c r="F122" s="49">
         <v>0.85</v>
       </c>
-      <c r="G122" s="223">
+      <c r="G122" s="216">
         <f t="shared" si="6"/>
         <v>12898.435500000001</v>
       </c>
-      <c r="H122" s="223"/>
+      <c r="H122" s="216"/>
     </row>
     <row r="123" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="30"/>
@@ -7751,11 +7754,11 @@
       <c r="F123" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G123" s="223">
+      <c r="G123" s="216">
         <f t="shared" si="6"/>
         <v>3706.6854000000003</v>
       </c>
-      <c r="H123" s="223"/>
+      <c r="H123" s="216"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
@@ -7804,11 +7807,11 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
       </c>
-      <c r="F127" s="218" t="s">
-        <v>425</v>
-      </c>
-      <c r="G127" s="218"/>
-      <c r="H127" s="218"/>
+      <c r="F127" s="221" t="s">
+        <v>469</v>
+      </c>
+      <c r="G127" s="221"/>
+      <c r="H127" s="221"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="30"/>
@@ -7824,11 +7827,11 @@
       <c r="E128" s="102">
         <v>4</v>
       </c>
-      <c r="F128" s="252">
+      <c r="F128" s="199">
         <v>5</v>
       </c>
-      <c r="G128" s="253"/>
-      <c r="H128" s="254"/>
+      <c r="G128" s="200"/>
+      <c r="H128" s="201"/>
     </row>
     <row r="129" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A129" s="30"/>
@@ -7845,12 +7848,12 @@
         <f>D129*Лист2!$B$3</f>
         <v>8893.7160000000003</v>
       </c>
-      <c r="F129" s="223">
+      <c r="F129" s="216">
         <f>E129*4</f>
         <v>35574.864000000001</v>
       </c>
-      <c r="G129" s="223"/>
-      <c r="H129" s="223"/>
+      <c r="G129" s="216"/>
+      <c r="H129" s="216"/>
     </row>
     <row r="130" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A130" s="30"/>
@@ -7867,12 +7870,12 @@
         <f>D130*Лист2!$B$3</f>
         <v>10698.66</v>
       </c>
-      <c r="F130" s="223">
+      <c r="F130" s="216">
         <f>E130*4</f>
         <v>42794.64</v>
       </c>
-      <c r="G130" s="223"/>
-      <c r="H130" s="223"/>
+      <c r="G130" s="216"/>
+      <c r="H130" s="216"/>
     </row>
     <row r="131" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" s="30"/>
@@ -7889,12 +7892,12 @@
         <f>D131*Лист2!$B$3</f>
         <v>12176.094000000001</v>
       </c>
-      <c r="F131" s="223">
+      <c r="F131" s="216">
         <f>E131*3</f>
         <v>36528.282000000007</v>
       </c>
-      <c r="G131" s="223"/>
-      <c r="H131" s="223"/>
+      <c r="G131" s="216"/>
+      <c r="H131" s="216"/>
     </row>
     <row r="132" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
@@ -7911,12 +7914,12 @@
         <f>D132*Лист2!$B$3</f>
         <v>15174.630000000001</v>
       </c>
-      <c r="F132" s="223">
+      <c r="F132" s="216">
         <f>E132*3</f>
         <v>45523.89</v>
       </c>
-      <c r="G132" s="223"/>
-      <c r="H132" s="223"/>
+      <c r="G132" s="216"/>
+      <c r="H132" s="216"/>
     </row>
     <row r="133" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="30"/>
@@ -7933,12 +7936,12 @@
         <f>D133*Лист2!$B$3</f>
         <v>12176.094000000001</v>
       </c>
-      <c r="F133" s="223">
+      <c r="F133" s="216">
         <f>E133*3.5</f>
         <v>42616.329000000005</v>
       </c>
-      <c r="G133" s="223"/>
-      <c r="H133" s="223"/>
+      <c r="G133" s="216"/>
+      <c r="H133" s="216"/>
     </row>
     <row r="134" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="30"/>
@@ -7955,12 +7958,12 @@
         <f>D134*Лист2!$B$3</f>
         <v>15174.630000000001</v>
       </c>
-      <c r="F134" s="223">
+      <c r="F134" s="216">
         <f>E134*3.5</f>
         <v>53111.205000000002</v>
       </c>
-      <c r="G134" s="223"/>
-      <c r="H134" s="223"/>
+      <c r="G134" s="216"/>
+      <c r="H134" s="216"/>
     </row>
     <row r="135" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
@@ -7977,12 +7980,12 @@
         <f>D135*Лист2!$B$3</f>
         <v>12176.094000000001</v>
       </c>
-      <c r="F135" s="223">
+      <c r="F135" s="216">
         <f>E135*1.2</f>
         <v>14611.312800000002</v>
       </c>
-      <c r="G135" s="223"/>
-      <c r="H135" s="223"/>
+      <c r="G135" s="216"/>
+      <c r="H135" s="216"/>
     </row>
     <row r="136" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A136" s="30"/>
@@ -7999,12 +8002,12 @@
         <f>D136*Лист2!$B$3</f>
         <v>15174.630000000001</v>
       </c>
-      <c r="F136" s="223">
+      <c r="F136" s="216">
         <f>E136*1.2</f>
         <v>18209.556</v>
       </c>
-      <c r="G136" s="223"/>
-      <c r="H136" s="223"/>
+      <c r="G136" s="216"/>
+      <c r="H136" s="216"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="30"/>
@@ -8021,12 +8024,12 @@
         <f>D137*Лист2!$B$3</f>
         <v>10698.66</v>
       </c>
-      <c r="F137" s="223">
+      <c r="F137" s="216">
         <f>E137*3.3</f>
         <v>35305.577999999994</v>
       </c>
-      <c r="G137" s="223"/>
-      <c r="H137" s="223"/>
+      <c r="G137" s="216"/>
+      <c r="H137" s="216"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
@@ -8043,12 +8046,12 @@
         <f>D138*Лист2!$B$3</f>
         <v>10698.66</v>
       </c>
-      <c r="F138" s="223">
+      <c r="F138" s="216">
         <f>E138*3.3</f>
         <v>35305.577999999994</v>
       </c>
-      <c r="G138" s="223"/>
-      <c r="H138" s="223"/>
+      <c r="G138" s="216"/>
+      <c r="H138" s="216"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
@@ -8065,12 +8068,12 @@
         <f>D139*Лист2!$B$3</f>
         <v>10698.66</v>
       </c>
-      <c r="F139" s="223">
+      <c r="F139" s="216">
         <f>E139*5</f>
         <v>53493.3</v>
       </c>
-      <c r="G139" s="223"/>
-      <c r="H139" s="223"/>
+      <c r="G139" s="216"/>
+      <c r="H139" s="216"/>
     </row>
     <row r="140" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
@@ -8087,12 +8090,12 @@
         <f>D140*Лист2!$B$3</f>
         <v>6739.4279999999999</v>
       </c>
-      <c r="F140" s="223">
+      <c r="F140" s="216">
         <f>E140*2</f>
         <v>13478.856</v>
       </c>
-      <c r="G140" s="223"/>
-      <c r="H140" s="223"/>
+      <c r="G140" s="216"/>
+      <c r="H140" s="216"/>
     </row>
     <row r="141" spans="1:8" ht="14" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
@@ -8141,11 +8144,11 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
       </c>
-      <c r="F144" s="218" t="s">
+      <c r="F144" s="221" t="s">
         <v>425</v>
       </c>
-      <c r="G144" s="218"/>
-      <c r="H144" s="218"/>
+      <c r="G144" s="221"/>
+      <c r="H144" s="221"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="30"/>
@@ -8161,11 +8164,11 @@
       <c r="E145" s="102">
         <v>4</v>
       </c>
-      <c r="F145" s="252">
+      <c r="F145" s="199">
         <v>5</v>
       </c>
-      <c r="G145" s="253"/>
-      <c r="H145" s="254"/>
+      <c r="G145" s="200"/>
+      <c r="H145" s="201"/>
     </row>
     <row r="146" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A146" s="30"/>
@@ -8182,12 +8185,12 @@
         <f>D146*Лист2!$B$3</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="F146" s="223">
+      <c r="F146" s="216">
         <f>E146*1</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="G146" s="223"/>
-      <c r="H146" s="223"/>
+      <c r="G146" s="216"/>
+      <c r="H146" s="216"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
@@ -8211,12 +8214,12 @@
     </row>
     <row r="149" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
-      <c r="B149" s="242"/>
-      <c r="C149" s="242"/>
-      <c r="D149" s="242"/>
-      <c r="E149" s="242"/>
-      <c r="F149" s="242"/>
-      <c r="G149" s="242"/>
+      <c r="B149" s="223"/>
+      <c r="C149" s="223"/>
+      <c r="D149" s="223"/>
+      <c r="E149" s="223"/>
+      <c r="F149" s="223"/>
+      <c r="G149" s="223"/>
       <c r="H149" s="118"/>
     </row>
     <row r="150" spans="1:8" ht="35" x14ac:dyDescent="0.25">
@@ -8477,10 +8480,10 @@
       <c r="F162" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="G162" s="198" t="s">
+      <c r="G162" s="226" t="s">
         <v>388</v>
       </c>
-      <c r="H162" s="198"/>
+      <c r="H162" s="226"/>
     </row>
     <row r="163" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A163" s="53"/>
@@ -8499,10 +8502,10 @@
       <c r="F163" s="109">
         <v>5</v>
       </c>
-      <c r="G163" s="236">
+      <c r="G163" s="235">
         <v>6</v>
       </c>
-      <c r="H163" s="236"/>
+      <c r="H163" s="235"/>
     </row>
     <row r="164" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A164" s="53"/>
@@ -8522,11 +8525,11 @@
       <c r="F164" s="49">
         <v>0.45</v>
       </c>
-      <c r="G164" s="197">
+      <c r="G164" s="205">
         <f t="shared" ref="G164:G170" si="9">E164*F164</f>
         <v>24281.591399999998</v>
       </c>
-      <c r="H164" s="197"/>
+      <c r="H164" s="205"/>
     </row>
     <row r="165" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A165" s="53"/>
@@ -8546,11 +8549,11 @@
       <c r="F165" s="49">
         <v>0.45</v>
       </c>
-      <c r="G165" s="197">
+      <c r="G165" s="205">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H165" s="197"/>
+      <c r="H165" s="205"/>
     </row>
     <row r="166" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A166" s="56"/>
@@ -8570,11 +8573,11 @@
       <c r="F166" s="49">
         <v>0.45</v>
       </c>
-      <c r="G166" s="197">
+      <c r="G166" s="205">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H166" s="197"/>
+      <c r="H166" s="205"/>
     </row>
     <row r="167" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A167" s="56"/>
@@ -8594,11 +8597,11 @@
       <c r="F167" s="49">
         <v>0.45</v>
       </c>
-      <c r="G167" s="197">
+      <c r="G167" s="205">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H167" s="197"/>
+      <c r="H167" s="205"/>
     </row>
     <row r="168" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A168" s="56"/>
@@ -8618,11 +8621,11 @@
       <c r="F168" s="49">
         <v>0.45</v>
       </c>
-      <c r="G168" s="197">
+      <c r="G168" s="205">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H168" s="197"/>
+      <c r="H168" s="205"/>
     </row>
     <row r="169" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="56"/>
@@ -8642,11 +8645,11 @@
       <c r="F169" s="110">
         <v>0.45</v>
       </c>
-      <c r="G169" s="244">
+      <c r="G169" s="225">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H169" s="244"/>
+      <c r="H169" s="225"/>
     </row>
     <row r="170" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="56"/>
@@ -8666,43 +8669,43 @@
       <c r="F170" s="99">
         <v>0.45</v>
       </c>
-      <c r="G170" s="223">
+      <c r="G170" s="216">
         <f t="shared" si="9"/>
         <v>24281.591399999998</v>
       </c>
-      <c r="H170" s="223"/>
+      <c r="H170" s="216"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="56"/>
-      <c r="B171" s="224" t="s">
+      <c r="B171" s="227" t="s">
         <v>465</v>
       </c>
-      <c r="C171" s="225"/>
-      <c r="D171" s="225"/>
-      <c r="E171" s="225"/>
-      <c r="F171" s="225"/>
-      <c r="G171" s="225"/>
-      <c r="H171" s="226"/>
+      <c r="C171" s="228"/>
+      <c r="D171" s="228"/>
+      <c r="E171" s="228"/>
+      <c r="F171" s="228"/>
+      <c r="G171" s="228"/>
+      <c r="H171" s="229"/>
     </row>
     <row r="172" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A172" s="36"/>
-      <c r="B172" s="227"/>
-      <c r="C172" s="228"/>
-      <c r="D172" s="228"/>
-      <c r="E172" s="228"/>
-      <c r="F172" s="228"/>
-      <c r="G172" s="228"/>
-      <c r="H172" s="229"/>
+      <c r="B172" s="230"/>
+      <c r="C172" s="231"/>
+      <c r="D172" s="231"/>
+      <c r="E172" s="231"/>
+      <c r="F172" s="231"/>
+      <c r="G172" s="231"/>
+      <c r="H172" s="232"/>
     </row>
     <row r="173" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A173" s="36"/>
-      <c r="B173" s="243"/>
-      <c r="C173" s="243"/>
-      <c r="D173" s="243"/>
-      <c r="E173" s="243"/>
-      <c r="F173" s="243"/>
-      <c r="G173" s="243"/>
-      <c r="H173" s="243"/>
+      <c r="B173" s="224"/>
+      <c r="C173" s="224"/>
+      <c r="D173" s="224"/>
+      <c r="E173" s="224"/>
+      <c r="F173" s="224"/>
+      <c r="G173" s="224"/>
+      <c r="H173" s="224"/>
     </row>
     <row r="174" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A174" s="36"/>
@@ -9478,8 +9481,8 @@
       <c r="D209" s="103"/>
       <c r="E209" s="103"/>
       <c r="F209" s="103"/>
-      <c r="G209" s="237"/>
-      <c r="H209" s="237"/>
+      <c r="G209" s="236"/>
+      <c r="H209" s="236"/>
     </row>
     <row r="210" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="36"/>
@@ -9665,11 +9668,11 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
       </c>
-      <c r="F218" s="233" t="s">
+      <c r="F218" s="219" t="s">
         <v>426</v>
       </c>
-      <c r="G218" s="233"/>
-      <c r="H218" s="233"/>
+      <c r="G218" s="219"/>
+      <c r="H218" s="219"/>
     </row>
     <row r="219" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A219" s="36"/>
@@ -9685,11 +9688,11 @@
       <c r="E219" s="102">
         <v>4</v>
       </c>
-      <c r="F219" s="252">
+      <c r="F219" s="199">
         <v>5</v>
       </c>
-      <c r="G219" s="253"/>
-      <c r="H219" s="254"/>
+      <c r="G219" s="200"/>
+      <c r="H219" s="201"/>
     </row>
     <row r="220" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A220" s="36"/>
@@ -9706,12 +9709,12 @@
         <f>D220*Лист2!$B$3</f>
         <v>12176.094000000001</v>
       </c>
-      <c r="F220" s="215">
+      <c r="F220" s="217">
         <f>E220*3.5</f>
         <v>42616.329000000005</v>
       </c>
-      <c r="G220" s="215"/>
-      <c r="H220" s="215"/>
+      <c r="G220" s="217"/>
+      <c r="H220" s="217"/>
     </row>
     <row r="221" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A221" s="36"/>
@@ -9929,14 +9932,14 @@
       <c r="B232" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="C232" s="245" t="s">
+      <c r="C232" s="218" t="s">
         <v>373</v>
       </c>
-      <c r="D232" s="245"/>
-      <c r="E232" s="245"/>
-      <c r="F232" s="245"/>
-      <c r="G232" s="245"/>
-      <c r="H232" s="245"/>
+      <c r="D232" s="218"/>
+      <c r="E232" s="218"/>
+      <c r="F232" s="218"/>
+      <c r="G232" s="218"/>
+      <c r="H232" s="218"/>
     </row>
     <row r="233" spans="1:8" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A233" s="36"/>
@@ -9988,10 +9991,10 @@
       <c r="F236" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="G236" s="233" t="s">
+      <c r="G236" s="219" t="s">
         <v>388</v>
       </c>
-      <c r="H236" s="233"/>
+      <c r="H236" s="219"/>
     </row>
     <row r="237" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A237" s="36"/>
@@ -10010,10 +10013,10 @@
       <c r="F237" s="106">
         <v>5</v>
       </c>
-      <c r="G237" s="246">
+      <c r="G237" s="220">
         <v>6</v>
       </c>
-      <c r="H237" s="246"/>
+      <c r="H237" s="220"/>
     </row>
     <row r="238" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A238" s="36"/>
@@ -10033,11 +10036,11 @@
       <c r="F238" s="50">
         <v>0.45</v>
       </c>
-      <c r="G238" s="223">
+      <c r="G238" s="216">
         <f t="shared" ref="G238:G248" si="22">E238*F238</f>
         <v>4123.3509000000004</v>
       </c>
-      <c r="H238" s="223"/>
+      <c r="H238" s="216"/>
     </row>
     <row r="239" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A239" s="36"/>
@@ -10057,11 +10060,11 @@
       <c r="F239" s="50">
         <v>0.45</v>
       </c>
-      <c r="G239" s="223">
+      <c r="G239" s="216">
         <f t="shared" si="22"/>
         <v>3419.2044000000005</v>
       </c>
-      <c r="H239" s="223"/>
+      <c r="H239" s="216"/>
     </row>
     <row r="240" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A240" s="36"/>
@@ -10081,11 +10084,11 @@
       <c r="F240" s="50">
         <v>0.45</v>
       </c>
-      <c r="G240" s="223">
+      <c r="G240" s="216">
         <f t="shared" si="22"/>
         <v>124.45379999999999</v>
       </c>
-      <c r="H240" s="223"/>
+      <c r="H240" s="216"/>
     </row>
     <row r="241" spans="1:8" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A241" s="114"/>
@@ -10105,11 +10108,11 @@
       <c r="F241" s="50">
         <v>0.45</v>
       </c>
-      <c r="G241" s="223">
+      <c r="G241" s="216">
         <f t="shared" si="22"/>
         <v>1909.3833</v>
       </c>
-      <c r="H241" s="223"/>
+      <c r="H241" s="216"/>
     </row>
     <row r="242" spans="1:8" ht="14" x14ac:dyDescent="0.25">
       <c r="A242" s="123"/>
@@ -10129,11 +10132,11 @@
       <c r="F242" s="50">
         <v>0.45</v>
       </c>
-      <c r="G242" s="223">
+      <c r="G242" s="216">
         <f t="shared" si="22"/>
         <v>704.14650000000006</v>
       </c>
-      <c r="H242" s="223"/>
+      <c r="H242" s="216"/>
     </row>
     <row r="243" spans="1:8" ht="25" x14ac:dyDescent="0.3">
       <c r="A243" s="89"/>
@@ -10153,11 +10156,11 @@
       <c r="F243" s="50">
         <v>0.45</v>
       </c>
-      <c r="G243" s="223">
+      <c r="G243" s="216">
         <f t="shared" si="22"/>
         <v>262.00800000000004</v>
       </c>
-      <c r="H243" s="223"/>
+      <c r="H243" s="216"/>
     </row>
     <row r="244" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A244" s="43"/>
@@ -10177,11 +10180,11 @@
       <c r="F244" s="50">
         <v>0.45</v>
       </c>
-      <c r="G244" s="223">
+      <c r="G244" s="216">
         <f t="shared" si="22"/>
         <v>671.39549999999997</v>
       </c>
-      <c r="H244" s="223"/>
+      <c r="H244" s="216"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="43"/>
@@ -10201,11 +10204,11 @@
       <c r="F245" s="50">
         <v>0.45</v>
       </c>
-      <c r="G245" s="223">
+      <c r="G245" s="216">
         <f t="shared" si="22"/>
         <v>831.8753999999999</v>
       </c>
-      <c r="H245" s="223"/>
+      <c r="H245" s="216"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="43"/>
@@ -10225,11 +10228,11 @@
       <c r="F246" s="50">
         <v>0.45</v>
       </c>
-      <c r="G246" s="223">
+      <c r="G246" s="216">
         <f t="shared" si="22"/>
         <v>596.06820000000005</v>
       </c>
-      <c r="H246" s="223"/>
+      <c r="H246" s="216"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="43"/>
@@ -10249,11 +10252,11 @@
       <c r="F247" s="50">
         <v>0.45</v>
       </c>
-      <c r="G247" s="223">
+      <c r="G247" s="216">
         <f t="shared" si="22"/>
         <v>281.65860000000004</v>
       </c>
-      <c r="H247" s="223"/>
+      <c r="H247" s="216"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="43"/>
@@ -10273,33 +10276,33 @@
       <c r="F248" s="50">
         <v>0.45</v>
       </c>
-      <c r="G248" s="223">
+      <c r="G248" s="216">
         <f t="shared" si="22"/>
         <v>356.98590000000002</v>
       </c>
-      <c r="H248" s="223"/>
+      <c r="H248" s="216"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="43"/>
-      <c r="B249" s="224" t="s">
+      <c r="B249" s="227" t="s">
         <v>413</v>
       </c>
-      <c r="C249" s="225"/>
-      <c r="D249" s="225"/>
-      <c r="E249" s="225"/>
-      <c r="F249" s="225"/>
-      <c r="G249" s="225"/>
-      <c r="H249" s="226"/>
+      <c r="C249" s="228"/>
+      <c r="D249" s="228"/>
+      <c r="E249" s="228"/>
+      <c r="F249" s="228"/>
+      <c r="G249" s="228"/>
+      <c r="H249" s="229"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="43"/>
-      <c r="B250" s="227"/>
-      <c r="C250" s="228"/>
-      <c r="D250" s="228"/>
-      <c r="E250" s="228"/>
-      <c r="F250" s="228"/>
-      <c r="G250" s="228"/>
-      <c r="H250" s="229"/>
+      <c r="B250" s="230"/>
+      <c r="C250" s="231"/>
+      <c r="D250" s="231"/>
+      <c r="E250" s="231"/>
+      <c r="F250" s="231"/>
+      <c r="G250" s="231"/>
+      <c r="H250" s="232"/>
     </row>
     <row r="251" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A251" s="43"/>
@@ -10341,16 +10344,16 @@
       <c r="C254" s="101" t="s">
         <v>397</v>
       </c>
-      <c r="D254" s="233" t="s">
+      <c r="D254" s="219" t="s">
         <v>380</v>
       </c>
-      <c r="E254" s="233"/>
-      <c r="F254" s="233" t="str">
+      <c r="E254" s="219"/>
+      <c r="F254" s="219" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом коэффициента-дефлятора Минстрой России на I кв 2025 г.: (72,78) руб.</v>
       </c>
-      <c r="G254" s="233"/>
-      <c r="H254" s="233"/>
+      <c r="G254" s="219"/>
+      <c r="H254" s="219"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="43"/>
@@ -10360,15 +10363,15 @@
       <c r="C255" s="8">
         <v>2</v>
       </c>
-      <c r="D255" s="238">
+      <c r="D255" s="240">
         <v>3</v>
       </c>
-      <c r="E255" s="239"/>
-      <c r="F255" s="238">
+      <c r="E255" s="241"/>
+      <c r="F255" s="240">
         <v>4</v>
       </c>
-      <c r="G255" s="240"/>
-      <c r="H255" s="239"/>
+      <c r="G255" s="242"/>
+      <c r="H255" s="241"/>
     </row>
     <row r="256" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A256" s="90"/>
@@ -10378,16 +10381,16 @@
       <c r="C256" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D256" s="235">
+      <c r="D256" s="233">
         <v>7</v>
       </c>
-      <c r="E256" s="235"/>
-      <c r="F256" s="230">
+      <c r="E256" s="233"/>
+      <c r="F256" s="237">
         <f>D256*Лист2!$B$3</f>
         <v>509.46000000000004</v>
       </c>
-      <c r="G256" s="231"/>
-      <c r="H256" s="232"/>
+      <c r="G256" s="238"/>
+      <c r="H256" s="239"/>
     </row>
     <row r="257" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A257" s="90"/>
@@ -10397,16 +10400,16 @@
       <c r="C257" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D257" s="235">
+      <c r="D257" s="233">
         <v>4</v>
       </c>
-      <c r="E257" s="235"/>
-      <c r="F257" s="230">
+      <c r="E257" s="233"/>
+      <c r="F257" s="237">
         <f>D257*Лист2!$B$3</f>
         <v>291.12</v>
       </c>
-      <c r="G257" s="231"/>
-      <c r="H257" s="232"/>
+      <c r="G257" s="238"/>
+      <c r="H257" s="239"/>
     </row>
     <row r="258" spans="1:8" ht="14" x14ac:dyDescent="0.25">
       <c r="A258" s="90"/>
@@ -10416,16 +10419,16 @@
       <c r="C258" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D258" s="235">
+      <c r="D258" s="233">
         <v>20.2</v>
       </c>
-      <c r="E258" s="235"/>
-      <c r="F258" s="230">
+      <c r="E258" s="233"/>
+      <c r="F258" s="237">
         <f>D258*Лист2!$B$3</f>
         <v>1470.1559999999999</v>
       </c>
-      <c r="G258" s="231"/>
-      <c r="H258" s="232"/>
+      <c r="G258" s="238"/>
+      <c r="H258" s="239"/>
     </row>
     <row r="259" spans="1:8" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A259" s="28"/>
@@ -10435,16 +10438,16 @@
       <c r="C259" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D259" s="235">
+      <c r="D259" s="233">
         <v>7.2</v>
       </c>
-      <c r="E259" s="235"/>
-      <c r="F259" s="230">
+      <c r="E259" s="233"/>
+      <c r="F259" s="237">
         <f>D259*Лист2!$B$3</f>
         <v>524.01600000000008</v>
       </c>
-      <c r="G259" s="231"/>
-      <c r="H259" s="232"/>
+      <c r="G259" s="238"/>
+      <c r="H259" s="239"/>
     </row>
     <row r="260" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A260" s="123"/>
@@ -10454,16 +10457,16 @@
       <c r="C260" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D260" s="235">
+      <c r="D260" s="233">
         <v>19.600000000000001</v>
       </c>
-      <c r="E260" s="235"/>
-      <c r="F260" s="230">
+      <c r="E260" s="233"/>
+      <c r="F260" s="237">
         <f>D260*Лист2!$B$3</f>
         <v>1426.4880000000001</v>
       </c>
-      <c r="G260" s="231"/>
-      <c r="H260" s="232"/>
+      <c r="G260" s="238"/>
+      <c r="H260" s="239"/>
     </row>
     <row r="261" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A261" s="30"/>
@@ -10473,16 +10476,16 @@
       <c r="C261" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D261" s="235">
+      <c r="D261" s="233">
         <v>40</v>
       </c>
-      <c r="E261" s="235"/>
-      <c r="F261" s="230">
+      <c r="E261" s="233"/>
+      <c r="F261" s="237">
         <f>D261*Лист2!$B$3</f>
         <v>2911.2</v>
       </c>
-      <c r="G261" s="231"/>
-      <c r="H261" s="232"/>
+      <c r="G261" s="238"/>
+      <c r="H261" s="239"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="30"/>
@@ -10492,16 +10495,16 @@
       <c r="C262" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D262" s="235">
+      <c r="D262" s="233">
         <v>8</v>
       </c>
-      <c r="E262" s="235"/>
-      <c r="F262" s="230">
+      <c r="E262" s="233"/>
+      <c r="F262" s="237">
         <f>D262*Лист2!$B$3</f>
         <v>582.24</v>
       </c>
-      <c r="G262" s="231"/>
-      <c r="H262" s="232"/>
+      <c r="G262" s="238"/>
+      <c r="H262" s="239"/>
     </row>
     <row r="263" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A263" s="30"/>
@@ -10511,16 +10514,16 @@
       <c r="C263" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D263" s="235">
+      <c r="D263" s="233">
         <v>101.9</v>
       </c>
-      <c r="E263" s="235"/>
-      <c r="F263" s="230">
+      <c r="E263" s="233"/>
+      <c r="F263" s="237">
         <f>D263*Лист2!$B$3</f>
         <v>7416.2820000000002</v>
       </c>
-      <c r="G263" s="231"/>
-      <c r="H263" s="232"/>
+      <c r="G263" s="238"/>
+      <c r="H263" s="239"/>
     </row>
     <row r="264" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A264" s="30"/>
@@ -10530,16 +10533,16 @@
       <c r="C264" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D264" s="235">
+      <c r="D264" s="233">
         <v>101.9</v>
       </c>
-      <c r="E264" s="235"/>
-      <c r="F264" s="230">
+      <c r="E264" s="233"/>
+      <c r="F264" s="237">
         <f>D264*Лист2!$B$3</f>
         <v>7416.2820000000002</v>
       </c>
-      <c r="G264" s="231"/>
-      <c r="H264" s="232"/>
+      <c r="G264" s="238"/>
+      <c r="H264" s="239"/>
     </row>
     <row r="265" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A265" s="30"/>
@@ -10549,16 +10552,16 @@
       <c r="C265" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="D265" s="235">
+      <c r="D265" s="233">
         <v>167.7</v>
       </c>
-      <c r="E265" s="235"/>
-      <c r="F265" s="230">
+      <c r="E265" s="233"/>
+      <c r="F265" s="237">
         <f>D265*Лист2!$B$3</f>
         <v>12205.206</v>
       </c>
-      <c r="G265" s="231"/>
-      <c r="H265" s="232"/>
+      <c r="G265" s="238"/>
+      <c r="H265" s="239"/>
     </row>
     <row r="266" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A266" s="30"/>
@@ -10568,16 +10571,16 @@
       <c r="C266" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D266" s="235">
+      <c r="D266" s="233">
         <v>376.5</v>
       </c>
-      <c r="E266" s="235"/>
-      <c r="F266" s="230">
+      <c r="E266" s="233"/>
+      <c r="F266" s="237">
         <f>D266*Лист2!$B$3</f>
         <v>27401.670000000002</v>
       </c>
-      <c r="G266" s="231"/>
-      <c r="H266" s="232"/>
+      <c r="G266" s="238"/>
+      <c r="H266" s="239"/>
     </row>
     <row r="267" spans="1:8" ht="50" x14ac:dyDescent="0.25">
       <c r="A267" s="30"/>
@@ -10587,16 +10590,16 @@
       <c r="C267" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D267" s="235">
+      <c r="D267" s="233">
         <v>376.5</v>
       </c>
-      <c r="E267" s="235"/>
-      <c r="F267" s="230">
+      <c r="E267" s="233"/>
+      <c r="F267" s="237">
         <f>D267*Лист2!$B$3</f>
         <v>27401.670000000002</v>
       </c>
-      <c r="G267" s="231"/>
-      <c r="H267" s="232"/>
+      <c r="G267" s="238"/>
+      <c r="H267" s="239"/>
     </row>
     <row r="268" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A268" s="30"/>
@@ -10606,16 +10609,16 @@
       <c r="C268" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D268" s="235">
+      <c r="D268" s="233">
         <v>741.4</v>
       </c>
-      <c r="E268" s="235"/>
-      <c r="F268" s="230">
+      <c r="E268" s="233"/>
+      <c r="F268" s="237">
         <f>D268*Лист2!$B$3</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="G268" s="231"/>
-      <c r="H268" s="232"/>
+      <c r="G268" s="238"/>
+      <c r="H268" s="239"/>
     </row>
     <row r="269" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A269" s="30"/>
@@ -10625,16 +10628,16 @@
       <c r="C269" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="D269" s="235">
+      <c r="D269" s="233">
         <v>411.9</v>
       </c>
-      <c r="E269" s="235"/>
-      <c r="F269" s="230">
+      <c r="E269" s="233"/>
+      <c r="F269" s="237">
         <f>D269*Лист2!$B$3</f>
         <v>29978.081999999999</v>
       </c>
-      <c r="G269" s="231"/>
-      <c r="H269" s="232"/>
+      <c r="G269" s="238"/>
+      <c r="H269" s="239"/>
     </row>
     <row r="270" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A270" s="30"/>
@@ -10644,16 +10647,16 @@
       <c r="C270" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D270" s="235">
+      <c r="D270" s="233">
         <v>114.4</v>
       </c>
-      <c r="E270" s="235"/>
-      <c r="F270" s="230">
+      <c r="E270" s="233"/>
+      <c r="F270" s="237">
         <f>D270*Лист2!$B$3</f>
         <v>8326.0320000000011</v>
       </c>
-      <c r="G270" s="231"/>
-      <c r="H270" s="232"/>
+      <c r="G270" s="238"/>
+      <c r="H270" s="239"/>
     </row>
     <row r="271" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A271" s="30"/>
@@ -10663,16 +10666,16 @@
       <c r="C271" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D271" s="235">
+      <c r="D271" s="233">
         <v>135</v>
       </c>
-      <c r="E271" s="235"/>
-      <c r="F271" s="230">
+      <c r="E271" s="233"/>
+      <c r="F271" s="237">
         <f>D271*Лист2!$B$3</f>
         <v>9825.2999999999993</v>
       </c>
-      <c r="G271" s="231"/>
-      <c r="H271" s="232"/>
+      <c r="G271" s="238"/>
+      <c r="H271" s="239"/>
     </row>
     <row r="272" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A272" s="30"/>
@@ -10682,16 +10685,16 @@
       <c r="C272" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D272" s="235">
+      <c r="D272" s="233">
         <v>741.4</v>
       </c>
-      <c r="E272" s="235"/>
-      <c r="F272" s="230">
+      <c r="E272" s="233"/>
+      <c r="F272" s="237">
         <f>D272*Лист2!$B$3</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="G272" s="231"/>
-      <c r="H272" s="232"/>
+      <c r="G272" s="238"/>
+      <c r="H272" s="239"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="30"/>
@@ -10701,16 +10704,16 @@
       <c r="C273" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="D273" s="235">
+      <c r="D273" s="233">
         <v>225.5</v>
       </c>
-      <c r="E273" s="235"/>
-      <c r="F273" s="230">
+      <c r="E273" s="233"/>
+      <c r="F273" s="237">
         <f>D273*Лист2!$B$3</f>
         <v>16411.89</v>
       </c>
-      <c r="G273" s="231"/>
-      <c r="H273" s="232"/>
+      <c r="G273" s="238"/>
+      <c r="H273" s="239"/>
     </row>
     <row r="274" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A274" s="30"/>
@@ -10720,16 +10723,16 @@
       <c r="C274" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D274" s="235">
+      <c r="D274" s="233">
         <v>20.2</v>
       </c>
-      <c r="E274" s="235"/>
-      <c r="F274" s="230">
+      <c r="E274" s="233"/>
+      <c r="F274" s="237">
         <f>D274*Лист2!$B$3</f>
         <v>1470.1559999999999</v>
       </c>
-      <c r="G274" s="231"/>
-      <c r="H274" s="232"/>
+      <c r="G274" s="238"/>
+      <c r="H274" s="239"/>
     </row>
     <row r="275" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A275" s="30"/>
@@ -10739,16 +10742,16 @@
       <c r="C275" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D275" s="235">
+      <c r="D275" s="233">
         <v>18.2</v>
       </c>
-      <c r="E275" s="235"/>
-      <c r="F275" s="230">
+      <c r="E275" s="233"/>
+      <c r="F275" s="237">
         <f>D275*Лист2!$B$3</f>
         <v>1324.596</v>
       </c>
-      <c r="G275" s="231"/>
-      <c r="H275" s="232"/>
+      <c r="G275" s="238"/>
+      <c r="H275" s="239"/>
     </row>
     <row r="276" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A276" s="30"/>
@@ -10758,25 +10761,25 @@
       <c r="C276" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="D276" s="215">
+      <c r="D276" s="217">
         <v>741.4</v>
       </c>
-      <c r="E276" s="215"/>
-      <c r="F276" s="230">
+      <c r="E276" s="217"/>
+      <c r="F276" s="237">
         <f>D276*Лист2!$B$3</f>
         <v>53959.091999999997</v>
       </c>
-      <c r="G276" s="231"/>
-      <c r="H276" s="232"/>
+      <c r="G276" s="238"/>
+      <c r="H276" s="239"/>
     </row>
     <row r="277" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A277" s="30"/>
-      <c r="B277" s="241"/>
-      <c r="C277" s="241"/>
-      <c r="D277" s="241"/>
-      <c r="E277" s="241"/>
-      <c r="F277" s="241"/>
-      <c r="G277" s="241"/>
+      <c r="B277" s="234"/>
+      <c r="C277" s="234"/>
+      <c r="D277" s="234"/>
+      <c r="E277" s="234"/>
+      <c r="F277" s="234"/>
+      <c r="G277" s="234"/>
       <c r="H277" s="118"/>
     </row>
     <row r="278" spans="1:8" ht="14" x14ac:dyDescent="0.3">
@@ -10819,10 +10822,10 @@
       <c r="F280" s="84" t="s">
         <v>387</v>
       </c>
-      <c r="G280" s="233" t="s">
+      <c r="G280" s="219" t="s">
         <v>388</v>
       </c>
-      <c r="H280" s="233"/>
+      <c r="H280" s="219"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="30"/>
@@ -10841,10 +10844,10 @@
       <c r="F281" s="111">
         <v>5</v>
       </c>
-      <c r="G281" s="234">
+      <c r="G281" s="243">
         <v>6</v>
       </c>
-      <c r="H281" s="234"/>
+      <c r="H281" s="243"/>
     </row>
     <row r="282" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A282" s="91"/>
@@ -10864,11 +10867,11 @@
       <c r="F282" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G282" s="197">
+      <c r="G282" s="205">
         <f t="shared" ref="G282:G331" si="23">E282*F282</f>
         <v>45873.234000000004</v>
       </c>
-      <c r="H282" s="197"/>
+      <c r="H282" s="205"/>
     </row>
     <row r="283" spans="1:8" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A283" s="91"/>
@@ -10888,11 +10891,11 @@
       <c r="F283" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G283" s="197">
+      <c r="G283" s="205">
         <f t="shared" si="23"/>
         <v>284.20589999999999</v>
       </c>
-      <c r="H283" s="197"/>
+      <c r="H283" s="205"/>
     </row>
     <row r="284" spans="1:8" s="30" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A284" s="91"/>
@@ -10912,11 +10915,11 @@
       <c r="F284" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G284" s="197">
+      <c r="G284" s="205">
         <f t="shared" si="23"/>
         <v>192.13920000000002</v>
       </c>
-      <c r="H284" s="197"/>
+      <c r="H284" s="205"/>
     </row>
     <row r="285" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A285" s="91"/>
@@ -10936,11 +10939,11 @@
       <c r="F285" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G285" s="197">
+      <c r="G285" s="205">
         <f t="shared" si="23"/>
         <v>284.20589999999999</v>
       </c>
-      <c r="H285" s="197"/>
+      <c r="H285" s="205"/>
     </row>
     <row r="286" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A286" s="132"/>
@@ -10960,11 +10963,11 @@
       <c r="F286" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G286" s="197">
+      <c r="G286" s="205">
         <f t="shared" si="23"/>
         <v>192.13920000000002</v>
       </c>
-      <c r="H286" s="197"/>
+      <c r="H286" s="205"/>
     </row>
     <row r="287" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A287" s="133"/>
@@ -10984,11 +10987,11 @@
       <c r="F287" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G287" s="197">
+      <c r="G287" s="205">
         <f t="shared" si="23"/>
         <v>228.16530000000003</v>
       </c>
-      <c r="H287" s="197"/>
+      <c r="H287" s="205"/>
     </row>
     <row r="288" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A288" s="92"/>
@@ -11008,11 +11011,11 @@
       <c r="F288" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G288" s="197">
+      <c r="G288" s="205">
         <f t="shared" si="23"/>
         <v>116.08410000000001</v>
       </c>
-      <c r="H288" s="197"/>
+      <c r="H288" s="205"/>
     </row>
     <row r="289" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A289" s="92"/>
@@ -11032,11 +11035,11 @@
       <c r="F289" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G289" s="197">
+      <c r="G289" s="205">
         <f t="shared" si="23"/>
         <v>1537.1136000000001</v>
       </c>
-      <c r="H289" s="197"/>
+      <c r="H289" s="205"/>
     </row>
     <row r="290" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A290" s="92"/>
@@ -11056,11 +11059,11 @@
       <c r="F290" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G290" s="197">
+      <c r="G290" s="205">
         <f t="shared" si="23"/>
         <v>1885.3659000000002</v>
       </c>
-      <c r="H290" s="197"/>
+      <c r="H290" s="205"/>
     </row>
     <row r="291" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A291" s="92"/>
@@ -11080,11 +11083,11 @@
       <c r="F291" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G291" s="197">
+      <c r="G291" s="205">
         <f t="shared" si="23"/>
         <v>3706.6854000000003</v>
       </c>
-      <c r="H291" s="197"/>
+      <c r="H291" s="205"/>
     </row>
     <row r="292" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A292" s="92"/>
@@ -11104,11 +11107,11 @@
       <c r="F292" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G292" s="197">
+      <c r="G292" s="205">
         <f t="shared" si="23"/>
         <v>3706.6854000000003</v>
       </c>
-      <c r="H292" s="197"/>
+      <c r="H292" s="205"/>
     </row>
     <row r="293" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A293" s="92"/>
@@ -11128,11 +11131,11 @@
       <c r="F293" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G293" s="197">
+      <c r="G293" s="205">
         <f t="shared" si="23"/>
         <v>1885.3659000000002</v>
       </c>
-      <c r="H293" s="197"/>
+      <c r="H293" s="205"/>
     </row>
     <row r="294" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A294" s="92"/>
@@ -11152,11 +11155,11 @@
       <c r="F294" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G294" s="197">
+      <c r="G294" s="205">
         <f t="shared" si="23"/>
         <v>1028.7453</v>
       </c>
-      <c r="H294" s="197"/>
+      <c r="H294" s="205"/>
     </row>
     <row r="295" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A295" s="92"/>
@@ -11176,11 +11179,11 @@
       <c r="F295" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G295" s="197">
+      <c r="G295" s="205">
         <f t="shared" si="23"/>
         <v>7461.405600000001</v>
       </c>
-      <c r="H295" s="197"/>
+      <c r="H295" s="205"/>
     </row>
     <row r="296" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A296" s="92"/>
@@ -11200,11 +11203,11 @@
       <c r="F296" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G296" s="197">
+      <c r="G296" s="205">
         <f t="shared" si="23"/>
         <v>9851.1369000000013</v>
       </c>
-      <c r="H296" s="197"/>
+      <c r="H296" s="205"/>
     </row>
     <row r="297" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A297" s="92"/>
@@ -11224,11 +11227,11 @@
       <c r="F297" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G297" s="197">
+      <c r="G297" s="205">
         <f t="shared" si="23"/>
         <v>6600.7821000000004</v>
       </c>
-      <c r="H297" s="197"/>
+      <c r="H297" s="205"/>
     </row>
     <row r="298" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A298" s="92"/>
@@ -11248,11 +11251,11 @@
       <c r="F298" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G298" s="197">
+      <c r="G298" s="205">
         <f t="shared" si="23"/>
         <v>9038.5482000000011</v>
       </c>
-      <c r="H298" s="197"/>
+      <c r="H298" s="205"/>
     </row>
     <row r="299" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="92"/>
@@ -11272,11 +11275,11 @@
       <c r="F299" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G299" s="197">
+      <c r="G299" s="205">
         <f t="shared" si="23"/>
         <v>7461.405600000001</v>
       </c>
-      <c r="H299" s="197"/>
+      <c r="H299" s="205"/>
     </row>
     <row r="300" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="92"/>
@@ -11296,11 +11299,11 @@
       <c r="F300" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G300" s="197">
+      <c r="G300" s="205">
         <f t="shared" si="23"/>
         <v>9851.1369000000013</v>
       </c>
-      <c r="H300" s="197"/>
+      <c r="H300" s="205"/>
     </row>
     <row r="301" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="92"/>
@@ -11320,11 +11323,11 @@
       <c r="F301" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G301" s="197">
+      <c r="G301" s="205">
         <f t="shared" si="23"/>
         <v>6600.7821000000004</v>
       </c>
-      <c r="H301" s="197"/>
+      <c r="H301" s="205"/>
     </row>
     <row r="302" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="92"/>
@@ -11344,11 +11347,11 @@
       <c r="F302" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G302" s="197">
+      <c r="G302" s="205">
         <f t="shared" si="23"/>
         <v>9038.5482000000011</v>
       </c>
-      <c r="H302" s="197"/>
+      <c r="H302" s="205"/>
     </row>
     <row r="303" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A303" s="92"/>
@@ -11368,11 +11371,11 @@
       <c r="F303" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G303" s="197">
+      <c r="G303" s="205">
         <f t="shared" si="23"/>
         <v>21807.799199999998</v>
       </c>
-      <c r="H303" s="197"/>
+      <c r="H303" s="205"/>
     </row>
     <row r="304" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A304" s="92"/>
@@ -11392,11 +11395,11 @@
       <c r="F304" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G304" s="197">
+      <c r="G304" s="205">
         <f t="shared" si="23"/>
         <v>29077.065600000002</v>
       </c>
-      <c r="H304" s="197"/>
+      <c r="H304" s="205"/>
     </row>
     <row r="305" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A305" s="92"/>
@@ -11416,11 +11419,11 @@
       <c r="F305" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G305" s="197">
+      <c r="G305" s="205">
         <f t="shared" si="23"/>
         <v>20282.694299999999</v>
       </c>
-      <c r="H305" s="197"/>
+      <c r="H305" s="205"/>
     </row>
     <row r="306" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A306" s="92"/>
@@ -11440,11 +11443,11 @@
       <c r="F306" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G306" s="197">
+      <c r="G306" s="205">
         <f t="shared" si="23"/>
         <v>25878.748500000005</v>
       </c>
-      <c r="H306" s="197"/>
+      <c r="H306" s="205"/>
     </row>
     <row r="307" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A307" s="92"/>
@@ -11464,11 +11467,11 @@
       <c r="F307" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G307" s="197">
+      <c r="G307" s="205">
         <f t="shared" si="23"/>
         <v>3090.2388000000001</v>
       </c>
-      <c r="H307" s="197"/>
+      <c r="H307" s="205"/>
     </row>
     <row r="308" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A308" s="92"/>
@@ -11488,11 +11491,11 @@
       <c r="F308" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G308" s="197">
+      <c r="G308" s="205">
         <f t="shared" si="23"/>
         <v>3090.2388000000001</v>
       </c>
-      <c r="H308" s="197"/>
+      <c r="H308" s="205"/>
     </row>
     <row r="309" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A309" s="92"/>
@@ -11512,11 +11515,11 @@
       <c r="F309" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G309" s="197">
+      <c r="G309" s="205">
         <f t="shared" si="23"/>
         <v>6116.4312000000009</v>
       </c>
-      <c r="H309" s="197"/>
+      <c r="H309" s="205"/>
     </row>
     <row r="310" spans="1:8" s="30" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A310" s="92"/>
@@ -11536,11 +11539,11 @@
       <c r="F310" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G310" s="197">
+      <c r="G310" s="205">
         <f t="shared" si="23"/>
         <v>5560.0281000000004</v>
       </c>
-      <c r="H310" s="197"/>
+      <c r="H310" s="205"/>
     </row>
     <row r="311" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A311" s="92"/>
@@ -11560,11 +11563,11 @@
       <c r="F311" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G311" s="197">
+      <c r="G311" s="205">
         <f t="shared" si="23"/>
         <v>10551.644400000001</v>
       </c>
-      <c r="H311" s="197"/>
+      <c r="H311" s="205"/>
     </row>
     <row r="312" spans="1:8" s="30" customFormat="1" ht="38.5" x14ac:dyDescent="0.25">
       <c r="A312" s="92"/>
@@ -11584,11 +11587,11 @@
       <c r="F312" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G312" s="197">
+      <c r="G312" s="205">
         <f t="shared" si="23"/>
         <v>29077.065600000002</v>
       </c>
-      <c r="H312" s="197"/>
+      <c r="H312" s="205"/>
     </row>
     <row r="313" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A313" s="92"/>
@@ -11608,11 +11611,11 @@
       <c r="F313" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G313" s="197">
+      <c r="G313" s="205">
         <f t="shared" si="23"/>
         <v>9518.8962000000029</v>
       </c>
-      <c r="H313" s="197"/>
+      <c r="H313" s="205"/>
     </row>
     <row r="314" spans="1:8" s="30" customFormat="1" ht="38.5" x14ac:dyDescent="0.25">
       <c r="A314" s="92"/>
@@ -11632,11 +11635,11 @@
       <c r="F314" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G314" s="197">
+      <c r="G314" s="205">
         <f t="shared" si="23"/>
         <v>25878.748500000005</v>
       </c>
-      <c r="H314" s="197"/>
+      <c r="H314" s="205"/>
     </row>
     <row r="315" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A315" s="92"/>
@@ -11656,11 +11659,11 @@
       <c r="F315" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G315" s="197">
+      <c r="G315" s="205">
         <f t="shared" si="23"/>
         <v>21807.799199999998</v>
       </c>
-      <c r="H315" s="197"/>
+      <c r="H315" s="205"/>
     </row>
     <row r="316" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="92"/>
@@ -11680,11 +11683,11 @@
       <c r="F316" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G316" s="197">
+      <c r="G316" s="205">
         <f t="shared" si="23"/>
         <v>20282.694299999999</v>
       </c>
-      <c r="H316" s="197"/>
+      <c r="H316" s="205"/>
     </row>
     <row r="317" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A317" s="92"/>
@@ -11704,11 +11707,11 @@
       <c r="F317" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G317" s="197">
+      <c r="G317" s="205">
         <f t="shared" si="23"/>
         <v>10551.644400000001</v>
       </c>
-      <c r="H317" s="197"/>
+      <c r="H317" s="205"/>
     </row>
     <row r="318" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="92"/>
@@ -11728,11 +11731,11 @@
       <c r="F318" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G318" s="197">
+      <c r="G318" s="205">
         <f t="shared" si="23"/>
         <v>29077.065600000002</v>
       </c>
-      <c r="H318" s="197"/>
+      <c r="H318" s="205"/>
     </row>
     <row r="319" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="92"/>
@@ -11752,11 +11755,11 @@
       <c r="F319" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G319" s="197">
+      <c r="G319" s="205">
         <f t="shared" si="23"/>
         <v>9518.8962000000029</v>
       </c>
-      <c r="H319" s="197"/>
+      <c r="H319" s="205"/>
     </row>
     <row r="320" spans="1:8" s="30" customFormat="1" ht="38" x14ac:dyDescent="0.25">
       <c r="A320" s="92"/>
@@ -11776,11 +11779,11 @@
       <c r="F320" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G320" s="197">
+      <c r="G320" s="205">
         <f t="shared" si="23"/>
         <v>25878.748500000005</v>
       </c>
-      <c r="H320" s="197"/>
+      <c r="H320" s="205"/>
     </row>
     <row r="321" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A321" s="92"/>
@@ -11800,11 +11803,11 @@
       <c r="F321" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G321" s="197">
+      <c r="G321" s="205">
         <f t="shared" si="23"/>
         <v>7413.3708000000006</v>
       </c>
-      <c r="H321" s="197"/>
+      <c r="H321" s="205"/>
     </row>
     <row r="322" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A322" s="92"/>
@@ -11824,11 +11827,11 @@
       <c r="F322" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G322" s="197">
+      <c r="G322" s="205">
         <f t="shared" si="23"/>
         <v>3706.6854000000003</v>
       </c>
-      <c r="H322" s="197"/>
+      <c r="H322" s="205"/>
     </row>
     <row r="323" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A323" s="92"/>
@@ -11848,11 +11851,11 @@
       <c r="F323" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G323" s="197">
+      <c r="G323" s="205">
         <f t="shared" si="23"/>
         <v>10551.644400000001</v>
       </c>
-      <c r="H323" s="197"/>
+      <c r="H323" s="205"/>
     </row>
     <row r="324" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A324" s="92"/>
@@ -11872,11 +11875,11 @@
       <c r="F324" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G324" s="197">
+      <c r="G324" s="205">
         <f t="shared" si="23"/>
         <v>436.31610000000006</v>
       </c>
-      <c r="H324" s="197"/>
+      <c r="H324" s="205"/>
     </row>
     <row r="325" spans="1:8" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A325" s="92"/>
@@ -11896,11 +11899,11 @@
       <c r="F325" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G325" s="197">
+      <c r="G325" s="205">
         <f t="shared" si="23"/>
         <v>5051.6598000000013</v>
       </c>
-      <c r="H325" s="197"/>
+      <c r="H325" s="205"/>
     </row>
     <row r="326" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="92"/>
@@ -11920,11 +11923,11 @@
       <c r="F326" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G326" s="197">
+      <c r="G326" s="205">
         <f t="shared" si="23"/>
         <v>10551.644400000001</v>
       </c>
-      <c r="H326" s="197"/>
+      <c r="H326" s="205"/>
     </row>
     <row r="327" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="92"/>
@@ -11944,11 +11947,11 @@
       <c r="F327" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G327" s="197">
+      <c r="G327" s="205">
         <f t="shared" si="23"/>
         <v>29077.065600000002</v>
       </c>
-      <c r="H327" s="197"/>
+      <c r="H327" s="205"/>
     </row>
     <row r="328" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="92"/>
@@ -11968,11 +11971,11 @@
       <c r="F328" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G328" s="197">
+      <c r="G328" s="205">
         <f t="shared" si="23"/>
         <v>9518.8962000000029</v>
       </c>
-      <c r="H328" s="197"/>
+      <c r="H328" s="205"/>
     </row>
     <row r="329" spans="1:8" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="92"/>
@@ -11992,11 +11995,11 @@
       <c r="F329" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G329" s="197">
+      <c r="G329" s="205">
         <f t="shared" si="23"/>
         <v>25878.748500000005</v>
       </c>
-      <c r="H329" s="197"/>
+      <c r="H329" s="205"/>
     </row>
     <row r="330" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A330" s="92"/>
@@ -12016,11 +12019,11 @@
       <c r="F330" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G330" s="197">
+      <c r="G330" s="205">
         <f t="shared" si="23"/>
         <v>1529.1078000000002</v>
       </c>
-      <c r="H330" s="197"/>
+      <c r="H330" s="205"/>
     </row>
     <row r="331" spans="1:8" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A331" s="92"/>
@@ -12040,11 +12043,11 @@
       <c r="F331" s="50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G331" s="197">
+      <c r="G331" s="205">
         <f t="shared" si="23"/>
         <v>1272.9222000000002</v>
       </c>
-      <c r="H331" s="197"/>
+      <c r="H331" s="205"/>
     </row>
     <row r="332" spans="1:8" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A332" s="92"/>
@@ -12095,306 +12098,306 @@
       <c r="B336" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C336" s="218" t="s">
+      <c r="C336" s="221" t="s">
         <v>395</v>
       </c>
-      <c r="D336" s="218"/>
-      <c r="E336" s="218" t="s">
+      <c r="D336" s="221"/>
+      <c r="E336" s="221" t="s">
         <v>394</v>
       </c>
-      <c r="F336" s="218"/>
-      <c r="G336" s="218" t="s">
+      <c r="F336" s="221"/>
+      <c r="G336" s="221" t="s">
         <v>422</v>
       </c>
-      <c r="H336" s="218"/>
+      <c r="H336" s="221"/>
     </row>
     <row r="337" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A337" s="96"/>
       <c r="B337" s="102">
         <v>1</v>
       </c>
-      <c r="C337" s="219">
+      <c r="C337" s="222">
         <v>2</v>
       </c>
-      <c r="D337" s="219"/>
-      <c r="E337" s="219">
+      <c r="D337" s="222"/>
+      <c r="E337" s="222">
         <v>3</v>
       </c>
-      <c r="F337" s="219"/>
-      <c r="G337" s="219">
+      <c r="F337" s="222"/>
+      <c r="G337" s="222">
         <v>4</v>
       </c>
-      <c r="H337" s="219"/>
+      <c r="H337" s="222"/>
     </row>
     <row r="338" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="96"/>
       <c r="B338" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C338" s="212" t="s">
+      <c r="C338" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D338" s="212"/>
-      <c r="E338" s="212" t="s">
+      <c r="D338" s="211"/>
+      <c r="E338" s="211" t="s">
         <v>223</v>
       </c>
-      <c r="F338" s="212"/>
-      <c r="G338" s="216">
+      <c r="F338" s="211"/>
+      <c r="G338" s="197">
         <v>3000</v>
       </c>
-      <c r="H338" s="217"/>
+      <c r="H338" s="198"/>
     </row>
     <row r="339" spans="1:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="96"/>
       <c r="B339" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C339" s="212" t="s">
+      <c r="C339" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D339" s="212"/>
-      <c r="E339" s="212" t="s">
+      <c r="D339" s="211"/>
+      <c r="E339" s="211" t="s">
         <v>223</v>
       </c>
-      <c r="F339" s="212"/>
-      <c r="G339" s="216">
+      <c r="F339" s="211"/>
+      <c r="G339" s="197">
         <v>2000</v>
       </c>
-      <c r="H339" s="217"/>
+      <c r="H339" s="198"/>
     </row>
     <row r="340" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="96"/>
       <c r="B340" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C340" s="212" t="s">
+      <c r="C340" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D340" s="212"/>
-      <c r="E340" s="212" t="s">
+      <c r="D340" s="211"/>
+      <c r="E340" s="211" t="s">
         <v>226</v>
       </c>
-      <c r="F340" s="212"/>
-      <c r="G340" s="216">
+      <c r="F340" s="211"/>
+      <c r="G340" s="197">
         <v>1000</v>
       </c>
-      <c r="H340" s="217"/>
+      <c r="H340" s="198"/>
     </row>
     <row r="341" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="96"/>
       <c r="B341" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C341" s="212" t="s">
+      <c r="C341" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D341" s="212"/>
-      <c r="E341" s="212" t="s">
+      <c r="D341" s="211"/>
+      <c r="E341" s="211" t="s">
         <v>228</v>
       </c>
-      <c r="F341" s="212"/>
-      <c r="G341" s="216">
+      <c r="F341" s="211"/>
+      <c r="G341" s="197">
         <v>350</v>
       </c>
-      <c r="H341" s="217"/>
+      <c r="H341" s="198"/>
     </row>
     <row r="342" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="96"/>
       <c r="B342" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C342" s="212" t="s">
+      <c r="C342" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D342" s="212"/>
-      <c r="E342" s="212" t="s">
+      <c r="D342" s="211"/>
+      <c r="E342" s="211" t="s">
         <v>230</v>
       </c>
-      <c r="F342" s="212"/>
-      <c r="G342" s="216">
+      <c r="F342" s="211"/>
+      <c r="G342" s="197">
         <v>300</v>
       </c>
-      <c r="H342" s="217"/>
+      <c r="H342" s="198"/>
     </row>
     <row r="343" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="96"/>
       <c r="B343" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C343" s="212" t="s">
+      <c r="C343" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D343" s="212"/>
-      <c r="E343" s="212" t="s">
+      <c r="D343" s="211"/>
+      <c r="E343" s="211" t="s">
         <v>232</v>
       </c>
-      <c r="F343" s="212"/>
-      <c r="G343" s="216">
+      <c r="F343" s="211"/>
+      <c r="G343" s="197">
         <v>350</v>
       </c>
-      <c r="H343" s="217"/>
+      <c r="H343" s="198"/>
     </row>
     <row r="344" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="96"/>
       <c r="B344" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C344" s="212" t="s">
+      <c r="C344" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D344" s="212"/>
-      <c r="E344" s="212" t="s">
+      <c r="D344" s="211"/>
+      <c r="E344" s="211" t="s">
         <v>234</v>
       </c>
-      <c r="F344" s="212"/>
-      <c r="G344" s="216">
+      <c r="F344" s="211"/>
+      <c r="G344" s="197">
         <v>350</v>
       </c>
-      <c r="H344" s="217"/>
+      <c r="H344" s="198"/>
     </row>
     <row r="345" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="96"/>
       <c r="B345" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C345" s="212" t="s">
+      <c r="C345" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D345" s="212"/>
-      <c r="E345" s="212" t="s">
+      <c r="D345" s="211"/>
+      <c r="E345" s="211" t="s">
         <v>236</v>
       </c>
-      <c r="F345" s="212"/>
-      <c r="G345" s="216">
+      <c r="F345" s="211"/>
+      <c r="G345" s="197">
         <v>1300</v>
       </c>
-      <c r="H345" s="217"/>
+      <c r="H345" s="198"/>
     </row>
     <row r="346" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="96"/>
       <c r="B346" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C346" s="212" t="s">
+      <c r="C346" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D346" s="212"/>
-      <c r="E346" s="212" t="s">
+      <c r="D346" s="211"/>
+      <c r="E346" s="211" t="s">
         <v>238</v>
       </c>
-      <c r="F346" s="212"/>
-      <c r="G346" s="216">
+      <c r="F346" s="211"/>
+      <c r="G346" s="197">
         <v>1300</v>
       </c>
-      <c r="H346" s="217"/>
+      <c r="H346" s="198"/>
     </row>
     <row r="347" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="96"/>
       <c r="B347" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C347" s="212" t="s">
+      <c r="C347" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D347" s="212"/>
-      <c r="E347" s="212" t="s">
+      <c r="D347" s="211"/>
+      <c r="E347" s="211" t="s">
         <v>348</v>
       </c>
-      <c r="F347" s="212"/>
-      <c r="G347" s="216">
+      <c r="F347" s="211"/>
+      <c r="G347" s="197">
         <v>400</v>
       </c>
-      <c r="H347" s="217"/>
+      <c r="H347" s="198"/>
     </row>
     <row r="348" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="96"/>
       <c r="B348" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C348" s="212" t="s">
+      <c r="C348" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D348" s="212"/>
-      <c r="E348" s="212" t="s">
+      <c r="D348" s="211"/>
+      <c r="E348" s="211" t="s">
         <v>241</v>
       </c>
-      <c r="F348" s="212"/>
-      <c r="G348" s="216">
+      <c r="F348" s="211"/>
+      <c r="G348" s="197">
         <v>350</v>
       </c>
-      <c r="H348" s="217"/>
+      <c r="H348" s="198"/>
     </row>
     <row r="349" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="96"/>
       <c r="B349" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C349" s="212" t="s">
+      <c r="C349" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D349" s="212"/>
-      <c r="E349" s="212" t="s">
+      <c r="D349" s="211"/>
+      <c r="E349" s="211" t="s">
         <v>243</v>
       </c>
-      <c r="F349" s="212"/>
-      <c r="G349" s="216">
+      <c r="F349" s="211"/>
+      <c r="G349" s="197">
         <v>400</v>
       </c>
-      <c r="H349" s="217"/>
+      <c r="H349" s="198"/>
     </row>
     <row r="350" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="96"/>
       <c r="B350" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C350" s="212" t="s">
+      <c r="C350" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D350" s="212"/>
-      <c r="E350" s="212" t="s">
+      <c r="D350" s="211"/>
+      <c r="E350" s="211" t="s">
         <v>346</v>
       </c>
-      <c r="F350" s="212"/>
-      <c r="G350" s="216">
+      <c r="F350" s="211"/>
+      <c r="G350" s="197">
         <v>4000</v>
       </c>
-      <c r="H350" s="217"/>
+      <c r="H350" s="198"/>
     </row>
     <row r="351" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="96"/>
       <c r="B351" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C351" s="212" t="s">
+      <c r="C351" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D351" s="212"/>
-      <c r="E351" s="212" t="s">
+      <c r="D351" s="211"/>
+      <c r="E351" s="211" t="s">
         <v>246</v>
       </c>
-      <c r="F351" s="212"/>
-      <c r="G351" s="216">
+      <c r="F351" s="211"/>
+      <c r="G351" s="197">
         <v>500</v>
       </c>
-      <c r="H351" s="217"/>
+      <c r="H351" s="198"/>
     </row>
     <row r="352" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="96"/>
       <c r="B352" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C352" s="212" t="s">
+      <c r="C352" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D352" s="212"/>
-      <c r="E352" s="212" t="s">
+      <c r="D352" s="211"/>
+      <c r="E352" s="211" t="s">
         <v>280</v>
       </c>
-      <c r="F352" s="212"/>
-      <c r="G352" s="216">
+      <c r="F352" s="211"/>
+      <c r="G352" s="197">
         <v>500</v>
       </c>
-      <c r="H352" s="217"/>
+      <c r="H352" s="198"/>
     </row>
     <row r="353" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A353" s="96"/>
@@ -12423,378 +12426,378 @@
       <c r="B355" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C355" s="215" t="s">
+      <c r="C355" s="217" t="s">
         <v>222</v>
       </c>
-      <c r="D355" s="215"/>
-      <c r="E355" s="212" t="s">
+      <c r="D355" s="217"/>
+      <c r="E355" s="211" t="s">
         <v>257</v>
       </c>
-      <c r="F355" s="212"/>
-      <c r="G355" s="216">
+      <c r="F355" s="211"/>
+      <c r="G355" s="197">
         <v>4500</v>
       </c>
-      <c r="H355" s="217"/>
+      <c r="H355" s="198"/>
     </row>
     <row r="356" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="96"/>
       <c r="B356" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C356" s="215" t="s">
+      <c r="C356" s="217" t="s">
         <v>222</v>
       </c>
-      <c r="D356" s="215"/>
-      <c r="E356" s="212" t="s">
+      <c r="D356" s="217"/>
+      <c r="E356" s="211" t="s">
         <v>257</v>
       </c>
-      <c r="F356" s="212"/>
-      <c r="G356" s="216">
+      <c r="F356" s="211"/>
+      <c r="G356" s="197">
         <v>300</v>
       </c>
-      <c r="H356" s="217"/>
+      <c r="H356" s="198"/>
     </row>
     <row r="357" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="96"/>
       <c r="B357" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="C357" s="215" t="s">
+      <c r="C357" s="217" t="s">
         <v>222</v>
       </c>
-      <c r="D357" s="215"/>
-      <c r="E357" s="212" t="s">
+      <c r="D357" s="217"/>
+      <c r="E357" s="211" t="s">
         <v>248</v>
       </c>
-      <c r="F357" s="212"/>
-      <c r="G357" s="216">
+      <c r="F357" s="211"/>
+      <c r="G357" s="197">
         <v>2500</v>
       </c>
-      <c r="H357" s="217"/>
+      <c r="H357" s="198"/>
     </row>
     <row r="358" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="96"/>
       <c r="B358" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C358" s="212" t="s">
+      <c r="C358" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D358" s="212"/>
-      <c r="E358" s="212" t="s">
+      <c r="D358" s="211"/>
+      <c r="E358" s="211" t="s">
         <v>250</v>
       </c>
-      <c r="F358" s="212"/>
-      <c r="G358" s="216">
+      <c r="F358" s="211"/>
+      <c r="G358" s="197">
         <v>700</v>
       </c>
-      <c r="H358" s="217"/>
+      <c r="H358" s="198"/>
     </row>
     <row r="359" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="96"/>
       <c r="B359" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C359" s="212" t="s">
+      <c r="C359" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D359" s="212"/>
-      <c r="E359" s="212" t="s">
+      <c r="D359" s="211"/>
+      <c r="E359" s="211" t="s">
         <v>252</v>
       </c>
-      <c r="F359" s="212"/>
-      <c r="G359" s="216">
+      <c r="F359" s="211"/>
+      <c r="G359" s="197">
         <v>500</v>
       </c>
-      <c r="H359" s="217"/>
+      <c r="H359" s="198"/>
     </row>
     <row r="360" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="96"/>
       <c r="B360" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C360" s="212" t="s">
+      <c r="C360" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D360" s="212"/>
-      <c r="E360" s="212" t="s">
+      <c r="D360" s="211"/>
+      <c r="E360" s="211" t="s">
         <v>254</v>
       </c>
-      <c r="F360" s="212"/>
-      <c r="G360" s="216">
+      <c r="F360" s="211"/>
+      <c r="G360" s="197">
         <v>2000</v>
       </c>
-      <c r="H360" s="217"/>
+      <c r="H360" s="198"/>
     </row>
     <row r="361" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="96"/>
       <c r="B361" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C361" s="212" t="s">
+      <c r="C361" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D361" s="212"/>
-      <c r="E361" s="212" t="s">
+      <c r="D361" s="211"/>
+      <c r="E361" s="211" t="s">
         <v>255</v>
       </c>
-      <c r="F361" s="212"/>
-      <c r="G361" s="216">
+      <c r="F361" s="211"/>
+      <c r="G361" s="197">
         <v>500</v>
       </c>
-      <c r="H361" s="217"/>
+      <c r="H361" s="198"/>
     </row>
     <row r="362" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="96"/>
       <c r="B362" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C362" s="212" t="s">
+      <c r="C362" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D362" s="212"/>
-      <c r="E362" s="212" t="s">
+      <c r="D362" s="211"/>
+      <c r="E362" s="211" t="s">
         <v>257</v>
       </c>
-      <c r="F362" s="212"/>
-      <c r="G362" s="216">
+      <c r="F362" s="211"/>
+      <c r="G362" s="197">
         <v>6000</v>
       </c>
-      <c r="H362" s="217"/>
+      <c r="H362" s="198"/>
     </row>
     <row r="363" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="96"/>
       <c r="B363" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C363" s="212" t="s">
+      <c r="C363" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D363" s="212"/>
-      <c r="E363" s="212" t="s">
+      <c r="D363" s="211"/>
+      <c r="E363" s="211" t="s">
         <v>257</v>
       </c>
-      <c r="F363" s="212"/>
-      <c r="G363" s="216">
+      <c r="F363" s="211"/>
+      <c r="G363" s="197">
         <v>4000</v>
       </c>
-      <c r="H363" s="217"/>
+      <c r="H363" s="198"/>
     </row>
     <row r="364" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="96"/>
       <c r="B364" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C364" s="212" t="s">
+      <c r="C364" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D364" s="212"/>
-      <c r="E364" s="212" t="s">
+      <c r="D364" s="211"/>
+      <c r="E364" s="211" t="s">
         <v>255</v>
       </c>
-      <c r="F364" s="212"/>
-      <c r="G364" s="216">
+      <c r="F364" s="211"/>
+      <c r="G364" s="197">
         <v>500</v>
       </c>
-      <c r="H364" s="217"/>
+      <c r="H364" s="198"/>
     </row>
     <row r="365" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="96"/>
       <c r="B365" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C365" s="212" t="s">
+      <c r="C365" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D365" s="212"/>
-      <c r="E365" s="212" t="s">
+      <c r="D365" s="211"/>
+      <c r="E365" s="211" t="s">
         <v>255</v>
       </c>
-      <c r="F365" s="212"/>
-      <c r="G365" s="216">
+      <c r="F365" s="211"/>
+      <c r="G365" s="197">
         <v>500</v>
       </c>
-      <c r="H365" s="217"/>
+      <c r="H365" s="198"/>
     </row>
     <row r="366" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="96"/>
       <c r="B366" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C366" s="212" t="s">
+      <c r="C366" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D366" s="212"/>
-      <c r="E366" s="212" t="s">
+      <c r="D366" s="211"/>
+      <c r="E366" s="211" t="s">
         <v>261</v>
       </c>
-      <c r="F366" s="212"/>
-      <c r="G366" s="216">
+      <c r="F366" s="211"/>
+      <c r="G366" s="197">
         <v>500</v>
       </c>
-      <c r="H366" s="217"/>
+      <c r="H366" s="198"/>
     </row>
     <row r="367" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="96"/>
       <c r="B367" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C367" s="212" t="s">
+      <c r="C367" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D367" s="212"/>
-      <c r="E367" s="212" t="s">
+      <c r="D367" s="211"/>
+      <c r="E367" s="211" t="s">
         <v>255</v>
       </c>
-      <c r="F367" s="212"/>
-      <c r="G367" s="216">
+      <c r="F367" s="211"/>
+      <c r="G367" s="197">
         <v>400</v>
       </c>
-      <c r="H367" s="217"/>
+      <c r="H367" s="198"/>
     </row>
     <row r="368" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="96"/>
       <c r="B368" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="C368" s="212" t="s">
+      <c r="C368" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D368" s="212"/>
-      <c r="E368" s="212" t="s">
+      <c r="D368" s="211"/>
+      <c r="E368" s="211" t="s">
         <v>263</v>
       </c>
-      <c r="F368" s="212"/>
-      <c r="G368" s="221">
+      <c r="F368" s="211"/>
+      <c r="G368" s="214">
         <v>500</v>
       </c>
-      <c r="H368" s="222"/>
+      <c r="H368" s="215"/>
     </row>
     <row r="369" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="96"/>
       <c r="B369" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C369" s="212" t="s">
+      <c r="C369" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D369" s="212"/>
-      <c r="E369" s="212" t="s">
+      <c r="D369" s="211"/>
+      <c r="E369" s="211" t="s">
         <v>265</v>
       </c>
-      <c r="F369" s="212"/>
-      <c r="G369" s="221">
+      <c r="F369" s="211"/>
+      <c r="G369" s="214">
         <v>500</v>
       </c>
-      <c r="H369" s="222"/>
+      <c r="H369" s="215"/>
     </row>
     <row r="370" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="96"/>
       <c r="B370" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C370" s="212" t="s">
+      <c r="C370" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D370" s="212"/>
-      <c r="E370" s="212" t="s">
+      <c r="D370" s="211"/>
+      <c r="E370" s="211" t="s">
         <v>257</v>
       </c>
-      <c r="F370" s="212"/>
-      <c r="G370" s="221">
+      <c r="F370" s="211"/>
+      <c r="G370" s="214">
         <v>500</v>
       </c>
-      <c r="H370" s="222"/>
+      <c r="H370" s="215"/>
     </row>
     <row r="371" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="96"/>
       <c r="B371" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C371" s="212" t="s">
+      <c r="C371" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D371" s="212"/>
-      <c r="E371" s="212" t="s">
+      <c r="D371" s="211"/>
+      <c r="E371" s="211" t="s">
         <v>263</v>
       </c>
-      <c r="F371" s="212"/>
-      <c r="G371" s="221">
+      <c r="F371" s="211"/>
+      <c r="G371" s="214">
         <v>500</v>
       </c>
-      <c r="H371" s="222"/>
+      <c r="H371" s="215"/>
     </row>
     <row r="372" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="96"/>
       <c r="B372" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C372" s="212" t="s">
+      <c r="C372" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D372" s="212"/>
-      <c r="E372" s="212" t="s">
+      <c r="D372" s="211"/>
+      <c r="E372" s="211" t="s">
         <v>268</v>
       </c>
-      <c r="F372" s="212"/>
-      <c r="G372" s="216">
+      <c r="F372" s="211"/>
+      <c r="G372" s="197">
         <v>3000</v>
       </c>
-      <c r="H372" s="217"/>
+      <c r="H372" s="198"/>
     </row>
     <row r="373" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="96"/>
       <c r="B373" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="C373" s="212" t="s">
+      <c r="C373" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D373" s="212"/>
-      <c r="E373" s="212" t="s">
+      <c r="D373" s="211"/>
+      <c r="E373" s="211" t="s">
         <v>263</v>
       </c>
-      <c r="F373" s="212"/>
-      <c r="G373" s="221">
+      <c r="F373" s="211"/>
+      <c r="G373" s="214">
         <v>300</v>
       </c>
-      <c r="H373" s="222"/>
+      <c r="H373" s="215"/>
     </row>
     <row r="374" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="96"/>
       <c r="B374" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C374" s="212" t="s">
+      <c r="C374" s="211" t="s">
         <v>247</v>
       </c>
-      <c r="D374" s="212"/>
-      <c r="E374" s="212" t="s">
+      <c r="D374" s="211"/>
+      <c r="E374" s="211" t="s">
         <v>263</v>
       </c>
-      <c r="F374" s="212"/>
-      <c r="G374" s="221">
+      <c r="F374" s="211"/>
+      <c r="G374" s="214">
         <v>700</v>
       </c>
-      <c r="H374" s="222"/>
+      <c r="H374" s="215"/>
     </row>
     <row r="375" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="96"/>
       <c r="B375" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C375" s="212" t="s">
+      <c r="C375" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D375" s="212"/>
-      <c r="E375" s="212" t="s">
+      <c r="D375" s="211"/>
+      <c r="E375" s="211" t="s">
         <v>347</v>
       </c>
-      <c r="F375" s="212"/>
-      <c r="G375" s="216">
+      <c r="F375" s="211"/>
+      <c r="G375" s="197">
         <v>7000</v>
       </c>
-      <c r="H375" s="217"/>
+      <c r="H375" s="198"/>
     </row>
     <row r="376" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A376" s="96"/>
@@ -12823,54 +12826,54 @@
       <c r="B378" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C378" s="212" t="s">
+      <c r="C378" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D378" s="212"/>
-      <c r="E378" s="212" t="s">
+      <c r="D378" s="211"/>
+      <c r="E378" s="211" t="s">
         <v>292</v>
       </c>
-      <c r="F378" s="212"/>
-      <c r="G378" s="216">
+      <c r="F378" s="211"/>
+      <c r="G378" s="197">
         <v>2500</v>
       </c>
-      <c r="H378" s="217"/>
+      <c r="H378" s="198"/>
     </row>
     <row r="379" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="96"/>
       <c r="B379" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C379" s="212" t="s">
+      <c r="C379" s="211" t="s">
         <v>222</v>
       </c>
-      <c r="D379" s="212"/>
-      <c r="E379" s="212" t="s">
+      <c r="D379" s="211"/>
+      <c r="E379" s="211" t="s">
         <v>292</v>
       </c>
-      <c r="F379" s="212"/>
-      <c r="G379" s="216">
+      <c r="F379" s="211"/>
+      <c r="G379" s="197">
         <v>500</v>
       </c>
-      <c r="H379" s="217"/>
+      <c r="H379" s="198"/>
     </row>
     <row r="380" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="96"/>
       <c r="B380" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C380" s="212" t="s">
+      <c r="C380" s="211" t="s">
         <v>291</v>
       </c>
-      <c r="D380" s="212"/>
-      <c r="E380" s="212" t="s">
+      <c r="D380" s="211"/>
+      <c r="E380" s="211" t="s">
         <v>292</v>
       </c>
-      <c r="F380" s="212"/>
-      <c r="G380" s="216">
+      <c r="F380" s="211"/>
+      <c r="G380" s="197">
         <v>3500</v>
       </c>
-      <c r="H380" s="217"/>
+      <c r="H380" s="198"/>
     </row>
     <row r="381" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A381" s="96"/>
@@ -12884,37 +12887,37 @@
     </row>
     <row r="382" spans="1:8" ht="25" x14ac:dyDescent="0.5">
       <c r="A382" s="96"/>
-      <c r="B382" s="220"/>
-      <c r="C382" s="220"/>
-      <c r="D382" s="220"/>
-      <c r="E382" s="220"/>
-      <c r="F382" s="220"/>
-      <c r="G382" s="220"/>
-      <c r="H382" s="220"/>
+      <c r="B382" s="244"/>
+      <c r="C382" s="244"/>
+      <c r="D382" s="244"/>
+      <c r="E382" s="244"/>
+      <c r="F382" s="244"/>
+      <c r="G382" s="244"/>
+      <c r="H382" s="244"/>
     </row>
     <row r="383" spans="1:8" ht="16" x14ac:dyDescent="0.4">
       <c r="A383" s="96"/>
-      <c r="B383" s="209" t="s">
+      <c r="B383" s="248" t="s">
         <v>427</v>
       </c>
-      <c r="C383" s="210"/>
-      <c r="D383" s="210"/>
-      <c r="E383" s="210"/>
-      <c r="F383" s="210"/>
-      <c r="G383" s="210"/>
-      <c r="H383" s="210"/>
+      <c r="C383" s="249"/>
+      <c r="D383" s="249"/>
+      <c r="E383" s="249"/>
+      <c r="F383" s="249"/>
+      <c r="G383" s="249"/>
+      <c r="H383" s="249"/>
     </row>
     <row r="384" spans="1:8" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="96"/>
-      <c r="B384" s="209" t="s">
+      <c r="B384" s="248" t="s">
         <v>435</v>
       </c>
-      <c r="C384" s="210"/>
-      <c r="D384" s="210"/>
-      <c r="E384" s="210"/>
-      <c r="F384" s="210"/>
-      <c r="G384" s="210"/>
-      <c r="H384" s="210"/>
+      <c r="C384" s="249"/>
+      <c r="D384" s="249"/>
+      <c r="E384" s="249"/>
+      <c r="F384" s="249"/>
+      <c r="G384" s="249"/>
+      <c r="H384" s="249"/>
     </row>
     <row r="385" spans="1:8" ht="13.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="96"/>
@@ -12928,97 +12931,97 @@
     </row>
     <row r="386" spans="1:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="96"/>
-      <c r="B386" s="208" t="s">
+      <c r="B386" s="212" t="s">
         <v>459</v>
       </c>
-      <c r="C386" s="207"/>
-      <c r="D386" s="207"/>
-      <c r="E386" s="207"/>
-      <c r="F386" s="207"/>
-      <c r="G386" s="207"/>
-      <c r="H386" s="207"/>
+      <c r="C386" s="213"/>
+      <c r="D386" s="213"/>
+      <c r="E386" s="213"/>
+      <c r="F386" s="213"/>
+      <c r="G386" s="213"/>
+      <c r="H386" s="213"/>
     </row>
     <row r="387" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A387" s="96"/>
-      <c r="B387" s="213" t="s">
+      <c r="B387" s="245" t="s">
         <v>466</v>
       </c>
-      <c r="C387" s="213"/>
-      <c r="D387" s="213"/>
-      <c r="E387" s="213"/>
-      <c r="F387" s="213"/>
-      <c r="G387" s="213"/>
-      <c r="H387" s="213"/>
+      <c r="C387" s="245"/>
+      <c r="D387" s="245"/>
+      <c r="E387" s="245"/>
+      <c r="F387" s="245"/>
+      <c r="G387" s="245"/>
+      <c r="H387" s="245"/>
     </row>
     <row r="388" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A388" s="96"/>
-      <c r="B388" s="213"/>
-      <c r="C388" s="213"/>
-      <c r="D388" s="213"/>
-      <c r="E388" s="213"/>
-      <c r="F388" s="213"/>
-      <c r="G388" s="213"/>
-      <c r="H388" s="213"/>
+      <c r="B388" s="245"/>
+      <c r="C388" s="245"/>
+      <c r="D388" s="245"/>
+      <c r="E388" s="245"/>
+      <c r="F388" s="245"/>
+      <c r="G388" s="245"/>
+      <c r="H388" s="245"/>
     </row>
     <row r="389" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A389" s="96"/>
-      <c r="B389" s="213"/>
-      <c r="C389" s="213"/>
-      <c r="D389" s="213"/>
-      <c r="E389" s="213"/>
-      <c r="F389" s="213"/>
-      <c r="G389" s="213"/>
-      <c r="H389" s="213"/>
+      <c r="B389" s="245"/>
+      <c r="C389" s="245"/>
+      <c r="D389" s="245"/>
+      <c r="E389" s="245"/>
+      <c r="F389" s="245"/>
+      <c r="G389" s="245"/>
+      <c r="H389" s="245"/>
     </row>
     <row r="390" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A390" s="96"/>
-      <c r="B390" s="213"/>
-      <c r="C390" s="213"/>
-      <c r="D390" s="213"/>
-      <c r="E390" s="213"/>
-      <c r="F390" s="213"/>
-      <c r="G390" s="213"/>
-      <c r="H390" s="213"/>
+      <c r="B390" s="245"/>
+      <c r="C390" s="245"/>
+      <c r="D390" s="245"/>
+      <c r="E390" s="245"/>
+      <c r="F390" s="245"/>
+      <c r="G390" s="245"/>
+      <c r="H390" s="245"/>
     </row>
     <row r="391" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A391" s="96"/>
-      <c r="B391" s="213"/>
-      <c r="C391" s="213"/>
-      <c r="D391" s="213"/>
-      <c r="E391" s="213"/>
-      <c r="F391" s="213"/>
-      <c r="G391" s="213"/>
-      <c r="H391" s="213"/>
+      <c r="B391" s="245"/>
+      <c r="C391" s="245"/>
+      <c r="D391" s="245"/>
+      <c r="E391" s="245"/>
+      <c r="F391" s="245"/>
+      <c r="G391" s="245"/>
+      <c r="H391" s="245"/>
     </row>
     <row r="392" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A392" s="96"/>
-      <c r="B392" s="213"/>
-      <c r="C392" s="213"/>
-      <c r="D392" s="213"/>
-      <c r="E392" s="213"/>
-      <c r="F392" s="213"/>
-      <c r="G392" s="213"/>
-      <c r="H392" s="213"/>
+      <c r="B392" s="245"/>
+      <c r="C392" s="245"/>
+      <c r="D392" s="245"/>
+      <c r="E392" s="245"/>
+      <c r="F392" s="245"/>
+      <c r="G392" s="245"/>
+      <c r="H392" s="245"/>
     </row>
     <row r="393" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="208" t="s">
+      <c r="B393" s="212" t="s">
         <v>436</v>
       </c>
-      <c r="C393" s="208"/>
-      <c r="D393" s="208"/>
-      <c r="E393" s="208"/>
-      <c r="F393" s="208"/>
-      <c r="G393" s="208"/>
-      <c r="H393" s="208"/>
+      <c r="C393" s="212"/>
+      <c r="D393" s="212"/>
+      <c r="E393" s="212"/>
+      <c r="F393" s="212"/>
+      <c r="G393" s="212"/>
+      <c r="H393" s="212"/>
     </row>
     <row r="394" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="208"/>
-      <c r="C394" s="208"/>
-      <c r="D394" s="208"/>
-      <c r="E394" s="208"/>
-      <c r="F394" s="208"/>
-      <c r="G394" s="208"/>
-      <c r="H394" s="208"/>
+      <c r="B394" s="212"/>
+      <c r="C394" s="212"/>
+      <c r="D394" s="212"/>
+      <c r="E394" s="212"/>
+      <c r="F394" s="212"/>
+      <c r="G394" s="212"/>
+      <c r="H394" s="212"/>
     </row>
     <row r="395" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="96"/>
@@ -13034,145 +13037,145 @@
     </row>
     <row r="396" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A396" s="96"/>
-      <c r="B396" s="207" t="s">
+      <c r="B396" s="213" t="s">
         <v>439</v>
       </c>
-      <c r="C396" s="207"/>
-      <c r="D396" s="207"/>
-      <c r="E396" s="207"/>
-      <c r="F396" s="207"/>
-      <c r="G396" s="207"/>
-      <c r="H396" s="207"/>
+      <c r="C396" s="213"/>
+      <c r="D396" s="213"/>
+      <c r="E396" s="213"/>
+      <c r="F396" s="213"/>
+      <c r="G396" s="213"/>
+      <c r="H396" s="213"/>
     </row>
     <row r="397" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A397" s="96"/>
-      <c r="B397" s="207"/>
-      <c r="C397" s="207"/>
-      <c r="D397" s="207"/>
-      <c r="E397" s="207"/>
-      <c r="F397" s="207"/>
-      <c r="G397" s="207"/>
-      <c r="H397" s="207"/>
+      <c r="B397" s="213"/>
+      <c r="C397" s="213"/>
+      <c r="D397" s="213"/>
+      <c r="E397" s="213"/>
+      <c r="F397" s="213"/>
+      <c r="G397" s="213"/>
+      <c r="H397" s="213"/>
     </row>
     <row r="398" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A398" s="96"/>
-      <c r="B398" s="207" t="s">
+      <c r="B398" s="213" t="s">
         <v>438</v>
       </c>
-      <c r="C398" s="207"/>
-      <c r="D398" s="207"/>
-      <c r="E398" s="207"/>
-      <c r="F398" s="207"/>
-      <c r="G398" s="207"/>
-      <c r="H398" s="207"/>
+      <c r="C398" s="213"/>
+      <c r="D398" s="213"/>
+      <c r="E398" s="213"/>
+      <c r="F398" s="213"/>
+      <c r="G398" s="213"/>
+      <c r="H398" s="213"/>
     </row>
     <row r="399" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A399" s="96"/>
-      <c r="B399" s="207"/>
-      <c r="C399" s="207"/>
-      <c r="D399" s="207"/>
-      <c r="E399" s="207"/>
-      <c r="F399" s="207"/>
-      <c r="G399" s="207"/>
-      <c r="H399" s="207"/>
+      <c r="B399" s="213"/>
+      <c r="C399" s="213"/>
+      <c r="D399" s="213"/>
+      <c r="E399" s="213"/>
+      <c r="F399" s="213"/>
+      <c r="G399" s="213"/>
+      <c r="H399" s="213"/>
     </row>
     <row r="400" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A400" s="96"/>
-      <c r="B400" s="207" t="s">
+      <c r="B400" s="213" t="s">
         <v>437</v>
       </c>
-      <c r="C400" s="207"/>
-      <c r="D400" s="207"/>
-      <c r="E400" s="207"/>
-      <c r="F400" s="207"/>
-      <c r="G400" s="207"/>
-      <c r="H400" s="207"/>
+      <c r="C400" s="213"/>
+      <c r="D400" s="213"/>
+      <c r="E400" s="213"/>
+      <c r="F400" s="213"/>
+      <c r="G400" s="213"/>
+      <c r="H400" s="213"/>
     </row>
     <row r="401" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A401" s="96"/>
-      <c r="B401" s="207"/>
-      <c r="C401" s="207"/>
-      <c r="D401" s="207"/>
-      <c r="E401" s="207"/>
-      <c r="F401" s="207"/>
-      <c r="G401" s="207"/>
-      <c r="H401" s="207"/>
+      <c r="B401" s="213"/>
+      <c r="C401" s="213"/>
+      <c r="D401" s="213"/>
+      <c r="E401" s="213"/>
+      <c r="F401" s="213"/>
+      <c r="G401" s="213"/>
+      <c r="H401" s="213"/>
     </row>
     <row r="402" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A402" s="96"/>
-      <c r="B402" s="213" t="s">
+      <c r="B402" s="245" t="s">
         <v>464</v>
       </c>
-      <c r="C402" s="213"/>
-      <c r="D402" s="213"/>
-      <c r="E402" s="213"/>
-      <c r="F402" s="213"/>
-      <c r="G402" s="213"/>
-      <c r="H402" s="213"/>
+      <c r="C402" s="245"/>
+      <c r="D402" s="245"/>
+      <c r="E402" s="245"/>
+      <c r="F402" s="245"/>
+      <c r="G402" s="245"/>
+      <c r="H402" s="245"/>
     </row>
     <row r="403" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A403" s="96"/>
-      <c r="B403" s="213"/>
-      <c r="C403" s="213"/>
-      <c r="D403" s="213"/>
-      <c r="E403" s="213"/>
-      <c r="F403" s="213"/>
-      <c r="G403" s="213"/>
-      <c r="H403" s="213"/>
+      <c r="B403" s="245"/>
+      <c r="C403" s="245"/>
+      <c r="D403" s="245"/>
+      <c r="E403" s="245"/>
+      <c r="F403" s="245"/>
+      <c r="G403" s="245"/>
+      <c r="H403" s="245"/>
     </row>
     <row r="404" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A404" s="96"/>
-      <c r="B404" s="214" t="s">
+      <c r="B404" s="246" t="s">
         <v>461</v>
       </c>
-      <c r="C404" s="214"/>
-      <c r="D404" s="214"/>
-      <c r="E404" s="214"/>
-      <c r="F404" s="214"/>
-      <c r="G404" s="214"/>
-      <c r="H404" s="214"/>
+      <c r="C404" s="246"/>
+      <c r="D404" s="246"/>
+      <c r="E404" s="246"/>
+      <c r="F404" s="246"/>
+      <c r="G404" s="246"/>
+      <c r="H404" s="246"/>
     </row>
     <row r="405" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A405" s="96"/>
-      <c r="B405" s="214"/>
-      <c r="C405" s="214"/>
-      <c r="D405" s="214"/>
-      <c r="E405" s="214"/>
-      <c r="F405" s="214"/>
-      <c r="G405" s="214"/>
-      <c r="H405" s="214"/>
+      <c r="B405" s="246"/>
+      <c r="C405" s="246"/>
+      <c r="D405" s="246"/>
+      <c r="E405" s="246"/>
+      <c r="F405" s="246"/>
+      <c r="G405" s="246"/>
+      <c r="H405" s="246"/>
     </row>
     <row r="406" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A406" s="96"/>
-      <c r="B406" s="214"/>
-      <c r="C406" s="214"/>
-      <c r="D406" s="214"/>
-      <c r="E406" s="214"/>
-      <c r="F406" s="214"/>
-      <c r="G406" s="214"/>
-      <c r="H406" s="214"/>
+      <c r="B406" s="246"/>
+      <c r="C406" s="246"/>
+      <c r="D406" s="246"/>
+      <c r="E406" s="246"/>
+      <c r="F406" s="246"/>
+      <c r="G406" s="246"/>
+      <c r="H406" s="246"/>
     </row>
     <row r="407" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A407" s="96"/>
-      <c r="B407" s="206" t="s">
+      <c r="B407" s="247" t="s">
         <v>440</v>
       </c>
-      <c r="C407" s="206"/>
-      <c r="D407" s="206"/>
-      <c r="E407" s="206"/>
-      <c r="F407" s="206"/>
-      <c r="G407" s="206"/>
-      <c r="H407" s="206"/>
+      <c r="C407" s="247"/>
+      <c r="D407" s="247"/>
+      <c r="E407" s="247"/>
+      <c r="F407" s="247"/>
+      <c r="G407" s="247"/>
+      <c r="H407" s="247"/>
     </row>
     <row r="408" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A408" s="96"/>
-      <c r="B408" s="206"/>
-      <c r="C408" s="206"/>
-      <c r="D408" s="206"/>
-      <c r="E408" s="206"/>
-      <c r="F408" s="206"/>
-      <c r="G408" s="206"/>
-      <c r="H408" s="206"/>
+      <c r="B408" s="247"/>
+      <c r="C408" s="247"/>
+      <c r="D408" s="247"/>
+      <c r="E408" s="247"/>
+      <c r="F408" s="247"/>
+      <c r="G408" s="247"/>
+      <c r="H408" s="247"/>
     </row>
     <row r="409" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A409" s="96"/>
@@ -13235,15 +13238,15 @@
     </row>
     <row r="415" spans="1:8" ht="25" x14ac:dyDescent="0.5">
       <c r="A415" s="137"/>
-      <c r="B415" s="249" t="s">
+      <c r="B415" s="208" t="s">
         <v>428</v>
       </c>
-      <c r="C415" s="250"/>
-      <c r="D415" s="250"/>
-      <c r="E415" s="250"/>
-      <c r="F415" s="250"/>
-      <c r="G415" s="250"/>
-      <c r="H415" s="251"/>
+      <c r="C415" s="209"/>
+      <c r="D415" s="209"/>
+      <c r="E415" s="209"/>
+      <c r="F415" s="209"/>
+      <c r="G415" s="209"/>
+      <c r="H415" s="210"/>
     </row>
     <row r="416" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B416" s="168"/>
@@ -13256,38 +13259,38 @@
     </row>
     <row r="417" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="97"/>
-      <c r="B417" s="256" t="s">
+      <c r="B417" s="203" t="s">
         <v>467</v>
       </c>
-      <c r="C417" s="256"/>
-      <c r="D417" s="256"/>
-      <c r="E417" s="256"/>
-      <c r="F417" s="256"/>
-      <c r="G417" s="256"/>
+      <c r="C417" s="203"/>
+      <c r="D417" s="203"/>
+      <c r="E417" s="203"/>
+      <c r="F417" s="203"/>
+      <c r="G417" s="203"/>
       <c r="H417" s="170"/>
     </row>
     <row r="418" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="138"/>
-      <c r="B418" s="257" t="s">
+      <c r="B418" s="204" t="s">
         <v>429</v>
       </c>
-      <c r="C418" s="257"/>
-      <c r="D418" s="257"/>
-      <c r="E418" s="257"/>
-      <c r="F418" s="257"/>
-      <c r="G418" s="257"/>
+      <c r="C418" s="204"/>
+      <c r="D418" s="204"/>
+      <c r="E418" s="204"/>
+      <c r="F418" s="204"/>
+      <c r="G418" s="204"/>
       <c r="H418" s="171"/>
     </row>
     <row r="419" spans="1:8" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="118"/>
-      <c r="B419" s="247" t="s">
+      <c r="B419" s="206" t="s">
         <v>430</v>
       </c>
-      <c r="C419" s="248"/>
-      <c r="D419" s="248"/>
-      <c r="E419" s="248"/>
-      <c r="F419" s="248"/>
-      <c r="G419" s="248"/>
+      <c r="C419" s="207"/>
+      <c r="D419" s="207"/>
+      <c r="E419" s="207"/>
+      <c r="F419" s="207"/>
+      <c r="G419" s="207"/>
       <c r="H419" s="172"/>
     </row>
     <row r="420" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -13317,6 +13320,315 @@
     </row>
   </sheetData>
   <mergeCells count="333">
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="B77:H78"/>
+    <mergeCell ref="B407:H408"/>
+    <mergeCell ref="B396:H397"/>
+    <mergeCell ref="B398:H399"/>
+    <mergeCell ref="B400:H401"/>
+    <mergeCell ref="B393:H394"/>
+    <mergeCell ref="B383:H383"/>
+    <mergeCell ref="B384:H384"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C361:D361"/>
+    <mergeCell ref="C362:D362"/>
+    <mergeCell ref="C363:D363"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="B402:H403"/>
+    <mergeCell ref="B404:H406"/>
+    <mergeCell ref="B387:H392"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="C365:D365"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="C367:D367"/>
+    <mergeCell ref="C368:D368"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E375:F375"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="E356:F356"/>
+    <mergeCell ref="E357:F357"/>
+    <mergeCell ref="E358:F358"/>
+    <mergeCell ref="E359:F359"/>
+    <mergeCell ref="E360:F360"/>
+    <mergeCell ref="C355:D355"/>
+    <mergeCell ref="C345:D345"/>
+    <mergeCell ref="C346:D346"/>
+    <mergeCell ref="C347:D347"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="C351:D351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="C352:D352"/>
+    <mergeCell ref="C356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="C358:D358"/>
+    <mergeCell ref="C359:D359"/>
+    <mergeCell ref="C360:D360"/>
+    <mergeCell ref="G343:H343"/>
+    <mergeCell ref="G359:H359"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="G336:H336"/>
+    <mergeCell ref="G337:H337"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="C336:D336"/>
+    <mergeCell ref="C337:D337"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="C344:D344"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="C339:D339"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E380:F380"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="B382:H382"/>
+    <mergeCell ref="G374:H374"/>
+    <mergeCell ref="G364:H364"/>
+    <mergeCell ref="G365:H365"/>
+    <mergeCell ref="G366:H366"/>
+    <mergeCell ref="C370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="C373:D373"/>
+    <mergeCell ref="C374:D374"/>
+    <mergeCell ref="C375:D375"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="E378:F378"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="B249:H250"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="C338:D338"/>
+    <mergeCell ref="F276:H276"/>
+    <mergeCell ref="F267:H267"/>
+    <mergeCell ref="F268:H268"/>
+    <mergeCell ref="F269:H269"/>
+    <mergeCell ref="F270:H270"/>
+    <mergeCell ref="F271:H271"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="F273:H273"/>
+    <mergeCell ref="F274:H274"/>
+    <mergeCell ref="F275:H275"/>
+    <mergeCell ref="G280:H280"/>
+    <mergeCell ref="G281:H281"/>
+    <mergeCell ref="G282:H282"/>
+    <mergeCell ref="D273:E273"/>
+    <mergeCell ref="G309:H309"/>
+    <mergeCell ref="G310:H310"/>
+    <mergeCell ref="G311:H311"/>
+    <mergeCell ref="G312:H312"/>
+    <mergeCell ref="G313:H313"/>
+    <mergeCell ref="G314:H314"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="F260:H260"/>
+    <mergeCell ref="F261:H261"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="F263:H263"/>
+    <mergeCell ref="F264:H264"/>
+    <mergeCell ref="F265:H265"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="F257:H257"/>
+    <mergeCell ref="F256:H256"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:H255"/>
+    <mergeCell ref="F266:H266"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="G283:H283"/>
+    <mergeCell ref="G284:H284"/>
+    <mergeCell ref="B277:G277"/>
+    <mergeCell ref="G285:H285"/>
+    <mergeCell ref="G286:H286"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F254:H254"/>
+    <mergeCell ref="F218:H218"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B173:H173"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="B171:H172"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G242:H242"/>
+    <mergeCell ref="G243:H243"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="C232:H232"/>
+    <mergeCell ref="G344:H344"/>
+    <mergeCell ref="G345:H345"/>
+    <mergeCell ref="G346:H346"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="G246:H246"/>
+    <mergeCell ref="G247:H247"/>
+    <mergeCell ref="G248:H248"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="G238:H238"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G305:H305"/>
+    <mergeCell ref="G306:H306"/>
+    <mergeCell ref="G307:H307"/>
+    <mergeCell ref="G308:H308"/>
+    <mergeCell ref="G371:H371"/>
+    <mergeCell ref="G372:H372"/>
+    <mergeCell ref="G373:H373"/>
+    <mergeCell ref="G347:H347"/>
+    <mergeCell ref="G348:H348"/>
+    <mergeCell ref="G349:H349"/>
+    <mergeCell ref="G350:H350"/>
+    <mergeCell ref="G351:H351"/>
+    <mergeCell ref="G352:H352"/>
+    <mergeCell ref="G355:H355"/>
+    <mergeCell ref="G356:H356"/>
+    <mergeCell ref="G357:H357"/>
+    <mergeCell ref="G369:H369"/>
+    <mergeCell ref="G370:H370"/>
+    <mergeCell ref="G361:H361"/>
+    <mergeCell ref="G368:H368"/>
+    <mergeCell ref="G367:H367"/>
+    <mergeCell ref="G315:H315"/>
+    <mergeCell ref="G316:H316"/>
+    <mergeCell ref="G358:H358"/>
+    <mergeCell ref="G296:H296"/>
+    <mergeCell ref="G297:H297"/>
+    <mergeCell ref="G298:H298"/>
+    <mergeCell ref="G299:H299"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="G301:H301"/>
+    <mergeCell ref="G302:H302"/>
+    <mergeCell ref="G303:H303"/>
+    <mergeCell ref="G304:H304"/>
+    <mergeCell ref="B419:G419"/>
+    <mergeCell ref="B415:H415"/>
+    <mergeCell ref="G323:H323"/>
+    <mergeCell ref="G324:H324"/>
+    <mergeCell ref="G325:H325"/>
+    <mergeCell ref="G326:H326"/>
+    <mergeCell ref="G327:H327"/>
+    <mergeCell ref="G328:H328"/>
+    <mergeCell ref="G329:H329"/>
+    <mergeCell ref="G330:H330"/>
+    <mergeCell ref="G331:H331"/>
+    <mergeCell ref="G375:H375"/>
+    <mergeCell ref="G378:H378"/>
+    <mergeCell ref="G379:H379"/>
+    <mergeCell ref="G380:H380"/>
+    <mergeCell ref="G362:H362"/>
+    <mergeCell ref="G338:H338"/>
+    <mergeCell ref="G339:H339"/>
+    <mergeCell ref="G340:H340"/>
+    <mergeCell ref="G341:H341"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="C342:D342"/>
+    <mergeCell ref="B386:H386"/>
+    <mergeCell ref="C369:D369"/>
     <mergeCell ref="G363:H363"/>
     <mergeCell ref="G360:H360"/>
     <mergeCell ref="F128:H128"/>
@@ -13341,315 +13653,6 @@
     <mergeCell ref="G293:H293"/>
     <mergeCell ref="G294:H294"/>
     <mergeCell ref="G295:H295"/>
-    <mergeCell ref="B419:G419"/>
-    <mergeCell ref="B415:H415"/>
-    <mergeCell ref="G323:H323"/>
-    <mergeCell ref="G324:H324"/>
-    <mergeCell ref="G325:H325"/>
-    <mergeCell ref="G326:H326"/>
-    <mergeCell ref="G327:H327"/>
-    <mergeCell ref="G328:H328"/>
-    <mergeCell ref="G329:H329"/>
-    <mergeCell ref="G330:H330"/>
-    <mergeCell ref="G331:H331"/>
-    <mergeCell ref="G375:H375"/>
-    <mergeCell ref="G378:H378"/>
-    <mergeCell ref="G379:H379"/>
-    <mergeCell ref="G380:H380"/>
-    <mergeCell ref="G362:H362"/>
-    <mergeCell ref="G338:H338"/>
-    <mergeCell ref="G339:H339"/>
-    <mergeCell ref="G340:H340"/>
-    <mergeCell ref="G341:H341"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="C342:D342"/>
-    <mergeCell ref="B386:H386"/>
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="G296:H296"/>
-    <mergeCell ref="G297:H297"/>
-    <mergeCell ref="G298:H298"/>
-    <mergeCell ref="G299:H299"/>
-    <mergeCell ref="G300:H300"/>
-    <mergeCell ref="G301:H301"/>
-    <mergeCell ref="G302:H302"/>
-    <mergeCell ref="G303:H303"/>
-    <mergeCell ref="G304:H304"/>
-    <mergeCell ref="G305:H305"/>
-    <mergeCell ref="G306:H306"/>
-    <mergeCell ref="G307:H307"/>
-    <mergeCell ref="G308:H308"/>
-    <mergeCell ref="G371:H371"/>
-    <mergeCell ref="G372:H372"/>
-    <mergeCell ref="G373:H373"/>
-    <mergeCell ref="G347:H347"/>
-    <mergeCell ref="G348:H348"/>
-    <mergeCell ref="G349:H349"/>
-    <mergeCell ref="G350:H350"/>
-    <mergeCell ref="G351:H351"/>
-    <mergeCell ref="G352:H352"/>
-    <mergeCell ref="G355:H355"/>
-    <mergeCell ref="G356:H356"/>
-    <mergeCell ref="G357:H357"/>
-    <mergeCell ref="G369:H369"/>
-    <mergeCell ref="G370:H370"/>
-    <mergeCell ref="G361:H361"/>
-    <mergeCell ref="G368:H368"/>
-    <mergeCell ref="G367:H367"/>
-    <mergeCell ref="G315:H315"/>
-    <mergeCell ref="G316:H316"/>
-    <mergeCell ref="G358:H358"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G242:H242"/>
-    <mergeCell ref="G243:H243"/>
-    <mergeCell ref="F220:H220"/>
-    <mergeCell ref="C232:H232"/>
-    <mergeCell ref="G344:H344"/>
-    <mergeCell ref="G345:H345"/>
-    <mergeCell ref="G346:H346"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="G246:H246"/>
-    <mergeCell ref="G247:H247"/>
-    <mergeCell ref="G248:H248"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="G237:H237"/>
-    <mergeCell ref="G238:H238"/>
-    <mergeCell ref="G239:H239"/>
-    <mergeCell ref="G240:H240"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="F254:H254"/>
-    <mergeCell ref="F218:H218"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B173:H173"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="B171:H172"/>
-    <mergeCell ref="G285:H285"/>
-    <mergeCell ref="G286:H286"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="G283:H283"/>
-    <mergeCell ref="G284:H284"/>
-    <mergeCell ref="B277:G277"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="F260:H260"/>
-    <mergeCell ref="F261:H261"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="F263:H263"/>
-    <mergeCell ref="F264:H264"/>
-    <mergeCell ref="F265:H265"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="F257:H257"/>
-    <mergeCell ref="F256:H256"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:H255"/>
-    <mergeCell ref="F266:H266"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="B249:H250"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="C338:D338"/>
-    <mergeCell ref="F276:H276"/>
-    <mergeCell ref="F267:H267"/>
-    <mergeCell ref="F268:H268"/>
-    <mergeCell ref="F269:H269"/>
-    <mergeCell ref="F270:H270"/>
-    <mergeCell ref="F271:H271"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="F273:H273"/>
-    <mergeCell ref="F274:H274"/>
-    <mergeCell ref="F275:H275"/>
-    <mergeCell ref="G280:H280"/>
-    <mergeCell ref="G281:H281"/>
-    <mergeCell ref="G282:H282"/>
-    <mergeCell ref="D273:E273"/>
-    <mergeCell ref="G309:H309"/>
-    <mergeCell ref="G310:H310"/>
-    <mergeCell ref="G311:H311"/>
-    <mergeCell ref="G312:H312"/>
-    <mergeCell ref="G313:H313"/>
-    <mergeCell ref="G314:H314"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E380:F380"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="B382:H382"/>
-    <mergeCell ref="G374:H374"/>
-    <mergeCell ref="G364:H364"/>
-    <mergeCell ref="G365:H365"/>
-    <mergeCell ref="G366:H366"/>
-    <mergeCell ref="C370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="C373:D373"/>
-    <mergeCell ref="C374:D374"/>
-    <mergeCell ref="C375:D375"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="G343:H343"/>
-    <mergeCell ref="G359:H359"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="G336:H336"/>
-    <mergeCell ref="G337:H337"/>
-    <mergeCell ref="E336:F336"/>
-    <mergeCell ref="C336:D336"/>
-    <mergeCell ref="C337:D337"/>
-    <mergeCell ref="E337:F337"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="E347:F347"/>
-    <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E349:F349"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="C344:D344"/>
-    <mergeCell ref="E339:F339"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="C339:D339"/>
-    <mergeCell ref="C340:D340"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="E356:F356"/>
-    <mergeCell ref="E357:F357"/>
-    <mergeCell ref="E358:F358"/>
-    <mergeCell ref="E359:F359"/>
-    <mergeCell ref="E360:F360"/>
-    <mergeCell ref="C355:D355"/>
-    <mergeCell ref="C345:D345"/>
-    <mergeCell ref="C346:D346"/>
-    <mergeCell ref="C347:D347"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="C349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="C351:D351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="C352:D352"/>
-    <mergeCell ref="C356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="C358:D358"/>
-    <mergeCell ref="C359:D359"/>
-    <mergeCell ref="C360:D360"/>
-    <mergeCell ref="C361:D361"/>
-    <mergeCell ref="C362:D362"/>
-    <mergeCell ref="C363:D363"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="B402:H403"/>
-    <mergeCell ref="B404:H406"/>
-    <mergeCell ref="B387:H392"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="C365:D365"/>
-    <mergeCell ref="C366:D366"/>
-    <mergeCell ref="C367:D367"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E375:F375"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="B407:H408"/>
-    <mergeCell ref="B396:H397"/>
-    <mergeCell ref="B398:H399"/>
-    <mergeCell ref="B400:H401"/>
-    <mergeCell ref="B393:H394"/>
-    <mergeCell ref="B383:H383"/>
-    <mergeCell ref="B384:H384"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B77:H78"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
